--- a/excel/DataSource.xlsx
+++ b/excel/DataSource.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C01A0-6B6C-B843-8E0A-53346F0199B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C9C83D-1515-484F-8AA3-DD9628455924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1400" windowWidth="34980" windowHeight="18520" xr2:uid="{A82D0DB8-8028-8749-AD8E-3907692F5E1B}"/>
+    <workbookView xWindow="-19260" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A82D0DB8-8028-8749-AD8E-3907692F5E1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="ExtEntry" sheetId="1" r:id="rId1"/>
+    <sheet name="DataRT" sheetId="1" r:id="rId1"/>
     <sheet name="TickerList" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -2166,154 +2166,6 @@
   </cellStyles>
   <dxfs count="55">
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.0%;[Red]\-0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2344,6 +2196,9 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0.0%;[Red]\-0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2422,6 +2277,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color theme="0" tint="-0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2447,6 +2320,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2461,6 +2352,24 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2504,6 +2413,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2521,6 +2433,12 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -2530,10 +2448,19 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2552,6 +2479,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2598,7 +2543,62 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3912,8 +3912,8 @@
     <v>1.1084000000000001</v>
     <v>-0.52</v>
     <v>-1.9009999999999999E-3</v>
-    <v>0.17</v>
-    <v>6.2280000000000007E-4</v>
+    <v>0.43</v>
+    <v>1.575E-3</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, visionOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. The Company operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+, and Apple TV+. Its products include iPhone 16 Pro, iPhone 16, iPhone 15, iPhone 14, iPhone SE, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, AirPods, AirPods Pro, AirPods Max, Apple TV and Apple Vision Pro.</v>
     <v>166000</v>
@@ -3924,7 +3924,7 @@
     <v>276.69900000000001</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45974.990140231253</v>
+    <v>45975.023760856253</v>
     <v>0</v>
     <v>272.08999999999997</v>
     <v>4033204732500</v>
@@ -3934,11 +3934,11 @@
     <v>36.753</v>
     <v>273.47000000000003</v>
     <v>272.95</v>
-    <v>273.12</v>
+    <v>273.38</v>
     <v>14776350000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>49574043</v>
+    <v>49591442</v>
     <v>48881136</v>
     <v>1977</v>
   </rv>
@@ -4071,8 +4071,8 @@
     <v>1.367</v>
     <v>-6.62</v>
     <v>-2.7109000000000001E-2</v>
-    <v>0.71</v>
-    <v>2.9880000000000002E-3</v>
+    <v>0.68</v>
+    <v>2.862E-3</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It also manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1578000</v>
@@ -4083,7 +4083,7 @@
     <v>243.75</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45974.990459432811</v>
+    <v>45975.023772568748</v>
     <v>9</v>
     <v>236.5</v>
     <v>2539782467600</v>
@@ -4093,11 +4093,11 @@
     <v>33.561199999999999</v>
     <v>244.2</v>
     <v>237.58</v>
-    <v>238.29</v>
+    <v>238.26</v>
     <v>10690220000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>41368010</v>
+    <v>41387017</v>
     <v>52729509</v>
     <v>1996</v>
   </rv>
@@ -4227,8 +4227,8 @@
     <v>1.2158</v>
     <v>-15.24</v>
     <v>-4.2903000000000004E-2</v>
-    <v>0.46</v>
-    <v>1.353E-3</v>
+    <v>0.37</v>
+    <v>1.088E-3</v>
     <v>USD</v>
     <v>Broadcom Inc. is a global technology firm that designs, develops, and supplies a range of semiconductors, enterprise software and security solutions. The Company operates through two segments: semiconductor solutions and infrastructure software. Its semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. It provides a variety of radio frequency semiconductor devices, wireless connectivity solutions, custom touch controllers, and inductive charging solutions for mobile applications. Its infrastructure software segment includes its private and hybrid cloud, application development and delivery, software-defined edge, application networking and security, mainframe, distributed and cybersecurity solutions, and its FC SAN business. It provides a portfolio of software solutions that enable customers to plan, develop, automate, manage and secure applications across mainframe, distributed, mobile and cloud platforms.</v>
     <v>37000</v>
@@ -4239,7 +4239,7 @@
     <v>353.55</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45974.990631342189</v>
+    <v>45975.02379491875</v>
     <v>18</v>
     <v>334.16</v>
     <v>1605509652700</v>
@@ -4249,11 +4249,11 @@
     <v>91.059200000000004</v>
     <v>355.22</v>
     <v>339.98</v>
-    <v>340.44</v>
+    <v>340.35</v>
     <v>4722365000</v>
     <v>AVGO</v>
     <v>BROADCOM INC. (XNAS:AVGO)</v>
-    <v>22593051</v>
+    <v>22607243</v>
     <v>20679852</v>
     <v>2018</v>
   </rv>
@@ -4281,8 +4281,8 @@
     <v>0.33179999999999998</v>
     <v>0.93</v>
     <v>1.0607E-2</v>
-    <v>0.28000000000000003</v>
-    <v>3.16E-3</v>
+    <v>0.86870000000000003</v>
+    <v>9.8040000000000002E-3</v>
     <v>USD</v>
     <v>AstraZeneca PLC is a United Kingdom-based science-led biopharmaceutical company. The Company focuses on the discovery, development, and commercialization of prescription medicines. The Company operates across therapy areas, including Oncology; Cardiovascular, Renal and Metabolism (CVRM); Respiratory and Immunology (R&amp;I); Vaccines and Immune Therapies (V&amp;I), and Rare Disease. In the Oncology area, its key products include Tagrisso, Imfinzi, Calquence, Lynparza, and Enhertu. The key products of CVRM area include Farxiga/Forxiga, Brilinta/Brilique, Crestor, and Lokelma. In the R&amp;I area, the key products are Symbicort, Fasenra, Breztri/Trixeo, and Tezspire. In the V&amp;I Therapies area, the products are Beyfortus and FluMist. The products in the Rare Disease area are Ultomiris, Soliris, Strensiq, and Koselugo. It has about 191 projects in its development pipeline, including 19 new molecular entities (NMEs) in the late-stage pipeline. The Company distributes its products in over 125 countries.</v>
     <v>94300</v>
@@ -4293,7 +4293,7 @@
     <v>89.43</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45974.987973622658</v>
+    <v>45975.019962372658</v>
     <v>21</v>
     <v>87.62</v>
     <v>275239800000</v>
@@ -4303,11 +4303,11 @@
     <v>29.438500000000001</v>
     <v>87.68</v>
     <v>88.61</v>
-    <v>88.89</v>
+    <v>89.478700000000003</v>
     <v>3101426000</v>
     <v>AZN</v>
     <v>ASTRAZENECA PLC (XNAS:AZN)</v>
-    <v>4514409</v>
+    <v>4514484</v>
     <v>5089321</v>
     <v>1992</v>
   </rv>
@@ -4324,7 +4324,7 @@
     <v>2</v>
     <v>11</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>5</v>
     <v>en-US</v>
     <v>a1oldm</v>
     <v>268435456</v>
@@ -4335,8 +4335,8 @@
     <v>1.7136</v>
     <v>-0.24</v>
     <v>-6.9970999999999992E-2</v>
-    <v>-9.7999999999999997E-3</v>
-    <v>-3.0719999999999996E-3</v>
+    <v>-2.9999999999999997E-4</v>
+    <v>-9.4039999999999987E-5</v>
     <v>USD</v>
     <v>Ballard Power Systems Inc. is engaged in the design, development, manufacture, sale and service of proton exchange membrane (PEM) fuel cell products for a variety of applications, focusing on power products for bus, truck, rail, marine, stationary and emerging market (material handling, off-road and other) applications, as well as the delivery of services, including technology solutions, after sales services and training. The Company operates through fuel cell products and services segment. Embedded in each Ballard fuel cell product lies a stack of unit cells designed with its PEM fuel cell technology that includes membrane electrode assemblies, catalysts, plates, and other key components, and draw on intellectual property from its patent portfolio, together with its experience and know-how, in key areas of PEM fuel cell stack design, operation, production processes and systems integration.</v>
     <v>887</v>
@@ -4347,7 +4347,7 @@
     <v>3.67</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45974.989600450783</v>
+    <v>45975.009220925778</v>
     <v>24</v>
     <v>3.08</v>
     <v>1439767000</v>
@@ -4357,11 +4357,11 @@
     <v>0</v>
     <v>3.43</v>
     <v>3.19</v>
-    <v>3.1802000000000001</v>
+    <v>3.1897000000000002</v>
     <v>300577700</v>
     <v>BLDP</v>
     <v>BALLARD POWER SYSTEMS INC. (XNAS:BLDP)</v>
-    <v>8651261</v>
+    <v>8651290</v>
     <v>7447059</v>
     <v>2016</v>
   </rv>
@@ -4389,8 +4389,8 @@
     <v>5.3199999999999997E-2</v>
     <v>-0.02</v>
     <v>-7.9369999999999996E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-0.05</v>
+    <v>-0.02</v>
     <v>USD</v>
     <v>Biomerica, Inc. is a biomedical technology company that develops, patents, manufactures and markets advanced diagnostic and therapeutic products. Its diagnostic test kits are utilized in the analysis of blood, urine, nasal, or fecal samples for the diagnosis of various diseases, food intolerances, and other medical conditions. Its range of medical diagnostic products is sold primarily in two markets: clinical laboratories and point-of-care settings, including physicians’ offices and over-the-counter sales. It is focused on research and development efforts and is its patented diagnostic-guided therapy (DGT) product, developed on the in Foods technology platform. Its inFoods IBS product, uses a simple blood test to identify patient-specific foods that, when eliminated, may alleviate IBS symptoms such as pain, bloating, diarrhea, cramping, and constipation. Its hp+detect, a new diagnostic test for detecting Helicobacter pylori (H. pylori) bacteria in the gastrointestinal tract.</v>
     <v>53</v>
@@ -4401,7 +4401,7 @@
     <v>2.56</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45974.881997013283</v>
+    <v>45974.988483240624</v>
     <v>27</v>
     <v>2.4500000000000002</v>
     <v>7428870</v>
@@ -4411,11 +4411,11 @@
     <v>0</v>
     <v>2.52</v>
     <v>2.5</v>
-    <v>2.5</v>
+    <v>2.4500000000000002</v>
     <v>2947970</v>
     <v>BMRA</v>
     <v>BIOMERICA, INC. (XNAS:BMRA)</v>
-    <v>15135</v>
+    <v>15136</v>
     <v>199545</v>
     <v>1971</v>
   </rv>
@@ -4443,8 +4443,8 @@
     <v>1.1966000000000001</v>
     <v>-2.16</v>
     <v>-2.0996999999999998E-2</v>
-    <v>0.1817</v>
-    <v>1.805E-3</v>
+    <v>0.53</v>
+    <v>5.2649999999999997E-3</v>
     <v>USD</v>
     <v>Citigroup Inc. is a global diversified financial services holding company. The Company’s segments include Services, Markets, Banking, Wealth and U.S. Personal Banking (USPB). The Services segment includes Treasury and Trade Solutions (TTS) and securities services. TTS provides an integrated suite of tailored cash management, trade and working capital solutions to multinational corporations, financial institutions and public sector organizations. The Markets segment provides corporate, institutional and public sector clients around the world with a full range of sales and trading services across equities, foreign exchange, rates, spread products and commodities. The Banking segment includes investment banking, which supports client capital-raising needs to help strengthen and grow their businesses. The Wealth segment includes Private Bank, Wealth at Work and Citigold and provides financial services to a range of client segments. USPB segment includes branded cards and retail services.</v>
     <v>227000</v>
@@ -4455,7 +4455,7 @@
     <v>103.5699</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45974.986682476563</v>
+    <v>45975.023111330469</v>
     <v>30</v>
     <v>100.47</v>
     <v>180200403000</v>
@@ -4465,11 +4465,11 @@
     <v>14.157400000000001</v>
     <v>102.87</v>
     <v>100.71</v>
-    <v>100.85169999999999</v>
+    <v>101.2</v>
     <v>1789300000</v>
     <v>C</v>
     <v>CITIGROUP INC. (XNYS:C)</v>
-    <v>11424024</v>
+    <v>11426539</v>
     <v>13430217</v>
     <v>1988</v>
   </rv>
@@ -4497,8 +4497,8 @@
     <v>0.86760000000000004</v>
     <v>3.42</v>
     <v>4.6241000000000004E-2</v>
-    <v>0.1</v>
-    <v>1.2920000000000002E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Cisco Systems, Inc. designs and sells a range of technologies that power the Internet. The Company is integrating its product portfolios across networking, security, collaboration, applications and cloud. The Company's segments include the Americas; Europe, Middle East, and Africa (EMEA), and Asia Pacific, Japan, and China (APJC). Its Networking product category represents its core networking technologies of switching, routing, wireless, fifth generation (5G), silicon, optics solutions and compute products. Its Security product category consists of its cloud and application security, industrial security, network security, and user and device security offerings. Its Collaboration product category consists of its meetings, collaboration devices, calling, contact center and platform as a service (CPaaS) offering. Its Observability product category consists of its full stack observability offerings.</v>
     <v>86200</v>
@@ -4509,7 +4509,7 @@
     <v>79.5</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45974.989382279688</v>
+    <v>45975.02375734922</v>
     <v>33</v>
     <v>76.650000000000006</v>
     <v>304933300500</v>
@@ -4519,11 +4519,11 @@
     <v>28.604199999999999</v>
     <v>73.959999999999994</v>
     <v>77.38</v>
-    <v>77.48</v>
+    <v>77.38</v>
     <v>3940725000</v>
     <v>CSCO</v>
     <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
-    <v>57614906</v>
+    <v>57627884</v>
     <v>19183927</v>
     <v>2021</v>
   </rv>
@@ -4551,8 +4551,8 @@
     <v>0.48010000000000003</v>
     <v>-0.99</v>
     <v>-1.2335E-2</v>
-    <v>0.36</v>
-    <v>4.5430000000000002E-3</v>
+    <v>-0.186</v>
+    <v>-2.3470000000000001E-3</v>
     <v>USD</v>
     <v>CVS Health Corporation is a health solutions company. The Company's segments include Health Care Benefits, Health Services, Pharmacy &amp; Consumer Wellness and Corporate/Other. The Health Care Benefits segment offers a range of traditional, voluntary and consumer-directed health insurance products and related services, including medical, pharmacy, dental and behavioral health plans, medical management capabilities, PDPs and Medicaid health care management services. The Health Services segment provides a full range of PBM solutions, delivers health care services in its medical clinics, virtually, and in the home, and offers provider enablement solutions. The Pharmacy &amp; Consumer Wellness segment dispenses prescriptions in its retail pharmacies and through its infusion operations, provides ancillary pharmacy services including pharmacy patient care programs, diagnostic testing and vaccination administration, and sells an assortment of health and wellness products and general merchandise.</v>
     <v>300000</v>
@@ -4563,7 +4563,7 @@
     <v>79.989999999999995</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45974.990496943748</v>
+    <v>45975.01957747656</v>
     <v>36</v>
     <v>78.52</v>
     <v>100627874640</v>
@@ -4573,11 +4573,11 @@
     <v>207.67619999999999</v>
     <v>80.260000000000005</v>
     <v>79.27</v>
-    <v>79.599999999999994</v>
+    <v>79.054000000000002</v>
     <v>1269432000</v>
     <v>CVS</v>
     <v>CVS HEALTH CORPORATION (XNYS:CVS)</v>
-    <v>7262467</v>
+    <v>7262543</v>
     <v>7991799</v>
     <v>1996</v>
   </rv>
@@ -4594,7 +4594,7 @@
     <v>2</v>
     <v>13</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>5</v>
     <v>en-US</v>
     <v>a1qu2w</v>
     <v>268435456</v>
@@ -4603,10 +4603,10 @@
     <v>4.9991000000000003</v>
     <v>1.32</v>
     <v>1.8819999999999999</v>
-    <v>-0.16</v>
-    <v>-6.8669999999999995E-2</v>
-    <v>1.4999999999999999E-2</v>
-    <v>6.9440000000000005E-3</v>
+    <v>-0.17</v>
+    <v>-7.2960999999999998E-2</v>
+    <v>0.02</v>
+    <v>9.2589999999999999E-3</v>
     <v>USD</v>
     <v>3D Systems Corporation provides comprehensive three-dimensional (3D) printing and digital manufacturing solutions, including 3D printers for plastics and metals, materials, software, and services, including maintenance, advanced manufacturing and applications engineering. The Company’s segments include Healthcare Solutions and Industrial Solutions. The Healthcare Solutions segment serves industry verticals, including dental, medical devices, personalized health services and regenerative medicine. The Industrial Solutions segment serves industry verticals, including aerospace, defense, transportation and general manufacturing. The Company architects solutions specific to customers’ needs through a combination of materials, hardware platforms, software, professional services and advanced manufacturing. It markets its products and services through subsidiaries in North America and South America, Europe and the Middle East and Asia Pacific and Oceania.</v>
     <v>1833</v>
@@ -4617,20 +4617,20 @@
     <v>2.2999999999999998</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45974.981999803123</v>
+    <v>45975.007976863279</v>
     <v>39</v>
     <v>2.11</v>
-    <v>279361460</v>
+    <v>278074080</v>
     <v>3D SYSTEMS CORPORATION</v>
     <v>3D SYSTEMS CORPORATION</v>
     <v>2.29</v>
     <v>2.33</v>
-    <v>2.17</v>
-    <v>2.1749999999999998</v>
+    <v>2.16</v>
+    <v>2.1800000000000002</v>
     <v>128738000</v>
     <v>DDD</v>
     <v>3D SYSTEMS CORPORATION (XNYS:DDD)</v>
-    <v>2467622</v>
+    <v>2467906</v>
     <v>4105000</v>
     <v>1993</v>
   </rv>
@@ -4678,8 +4678,8 @@
     <v>1.4861</v>
     <v>-9.06</v>
     <v>-7.7668000000000001E-2</v>
-    <v>7.0000000000000007E-2</v>
-    <v>6.5049999999999993E-4</v>
+    <v>0.11</v>
+    <v>1.0219999999999999E-3</v>
     <v>USD</v>
     <v>The Walt Disney Company is a diversified worldwide entertainment company. The Company's segments include Entertainment, Sports and Experiences. The Entertainment segment generally encompasses its non-sports focused global film and episodic content production and distribution activities. The lines of business within the Entertainment segment along with their business activities include Linear Networks, Direct-to-Consumer, and Content Sales/Licensing. The Sports segment encompasses its sports-focused global television and direct-to-consumer (DTC) video streaming content production and distribution activities. The lines of business within the Sports segment include ESPN and Star. The Experiences segment includes Parks and Experiences and Consumer Products. Parks and Experiences consists of Walt Disney World Resort in Florida, Disneyland Resort in California, Disney Cruise Line, and others. Consumer Products includes licensing of its trade names, characters, visual, literary and other IP.</v>
     <v>233000</v>
@@ -4691,7 +4691,7 @@
     <v>45</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45974.990259178128</v>
+    <v>45975.02375791641</v>
     <v>46</v>
     <v>104.91</v>
     <v>193439719060</v>
@@ -4701,11 +4701,11 @@
     <v>16.867899999999999</v>
     <v>116.65</v>
     <v>107.59</v>
-    <v>107.68</v>
+    <v>107.72</v>
     <v>1797934000</v>
     <v>DIS</v>
     <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
-    <v>44030908</v>
+    <v>44037651</v>
     <v>8219055</v>
     <v>2018</v>
   </rv>
@@ -4773,7 +4773,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a1rec7</v>
     <v>268435456</v>
@@ -4782,10 +4782,10 @@
     <v>179.6</v>
     <v>115.39</v>
     <v>0.99050000000000005</v>
-    <v>-0.55000000000000004</v>
-    <v>-4.45E-3</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-5.689E-4</v>
+    <v>-0.54</v>
+    <v>-4.3690000000000005E-3</v>
+    <v>0.62419999999999998</v>
+    <v>5.0729999999999994E-3</v>
     <v>USD</v>
     <v>DaVita Inc. is a healthcare provider focused on transforming care delivery to improve the quality of life for patients globally. The Company is a provider of kidney care services in the United States. Its United States dialysis (U.S. dialysis) and related lab services business treats patients with chronic kidney failure and end-stage kidney disease (ESKD). The Company’s robust platform delivers kidney care services and includes established nephrology and payor relationships. The Company’s international operations provide dialysis and administrative services to a total of outpatient dialysis centers. The Company’s U.S. integrated kidney care (IKC) business provides integrated care and disease management services to patients in risk-based integrated care arrangements and to additional patients in other integrated care arrangements across the United States. It also maintains a few other ancillary services and investments outside its U.S. dialysis, U.S. IKC, or international operations.</v>
     <v>76000</v>
@@ -4796,21 +4796,21 @@
     <v>124.86</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45974.97916668906</v>
+    <v>45975.021511296094</v>
     <v>52</v>
     <v>122.61499999999999</v>
-    <v>8687330000</v>
+    <v>8688036000</v>
     <v>DAVITA INC.</v>
     <v>DAVITA INC.</v>
     <v>122.67</v>
-    <v>12.6691</v>
+    <v>12.6701</v>
     <v>123.6</v>
-    <v>123.05</v>
-    <v>122.98</v>
+    <v>123.06</v>
+    <v>123.6742</v>
     <v>70600000</v>
     <v>DVA</v>
     <v>DAVITA INC. (XNYS:DVA)</v>
-    <v>728882</v>
+    <v>728985</v>
     <v>878788</v>
     <v>1994</v>
   </rv>
@@ -4838,8 +4838,8 @@
     <v>1.0883</v>
     <v>-0.44</v>
     <v>-3.1977000000000005E-2</v>
-    <v>0.03</v>
-    <v>2.2520000000000001E-3</v>
+    <v>0.1</v>
+    <v>7.5079999999999999E-3</v>
     <v>USD</v>
     <v>DXC Technology Company is a global technology services provider. The Company helps global companies run their mission-critical systems and operations while modernizing information technology (IT), optimizing data architectures, and ensuring security and scalability across public, private and hybrid clouds. The Company’s segments include Global Business Services (GBS) and Global Infrastructure Services (GIS). The GBS segment provides technology solutions that help its customers address key business challenges and accelerate transformations tailored to each customer’s industry and specific objectives. GBS offerings include consulting and engineering services and insurance software and business process services. The GIS segment provides a portfolio of technology offerings that deliver predictable outcomes and measurable results while reducing business risk and operational costs for customers. GIS offerings include cloud IT outsourcing (ITO) and security and modern workplace.</v>
     <v>120000</v>
@@ -4850,7 +4850,7 @@
     <v>13.81</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45974.97916668906</v>
+    <v>45975.009976203124</v>
     <v>55</v>
     <v>13.26</v>
     <v>2396083000</v>
@@ -4860,11 +4860,11 @@
     <v>6.5038999999999998</v>
     <v>13.76</v>
     <v>13.32</v>
-    <v>13.35</v>
+    <v>13.42</v>
     <v>174134000</v>
     <v>DXC</v>
     <v>DXC TECHNOLOGY COMPANY (XNYS:DXC)</v>
-    <v>2129659</v>
+    <v>2129705</v>
     <v>1965448</v>
     <v>2017</v>
   </rv>
@@ -4995,8 +4995,8 @@
     <v>1.3072999999999999</v>
     <v>0.06</v>
     <v>8.3519999999999992E-4</v>
-    <v>0.11</v>
-    <v>1.5299999999999999E-3</v>
+    <v>0.01</v>
+    <v>1.3909999999999999E-4</v>
     <v>USD</v>
     <v>General Motors Company designs, builds and sells trucks, crossovers, cars and automobile parts and provides software-enabled services and subscriptions worldwide. The Company's segments include GMNA, GMI, Cruise and GM Financial. Its GM North America (GMNA) and GM International (GMI) develop, manufacture and/or markets vehicles under the Buick, Cadillac, Chevrolet and GMC brands. The Company provides automotive financing services through its General Motors Financial Company, Inc. (GM Financial) segment. Its Cruise segment is engaged in the development and commercialization of autonomous vehicle technology. Its software-enabled services and subscriptions, including OnStar, its advanced driver-assistance systems (ADAS), including Super Cruise driver assistance technology, and its end-to-end software platform. The Company is also focused on investing in electric vehicles (EVs) and AVs, software-enabled services and subscriptions and new business opportunities.</v>
     <v>162000</v>
@@ -5007,7 +5007,7 @@
     <v>72.87</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45974.98679762656</v>
+    <v>45975.022687372657</v>
     <v>64</v>
     <v>71.48</v>
     <v>67072727470</v>
@@ -5017,11 +5017,11 @@
     <v>13.8291</v>
     <v>71.84</v>
     <v>71.900000000000006</v>
-    <v>72</v>
+    <v>71.900000000000006</v>
     <v>932861300</v>
     <v>GM</v>
     <v>GENERAL MOTORS COMPANY (XNYS:GM)</v>
-    <v>9003153</v>
+    <v>9003443</v>
     <v>10268524</v>
     <v>2009</v>
   </rv>
@@ -5038,7 +5038,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>5</v>
     <v>en-US</v>
     <v>a1utqh</v>
     <v>268435456</v>
@@ -5047,10 +5047,10 @@
     <v>26.44</v>
     <v>11.965</v>
     <v>1.3420000000000001</v>
-    <v>-0.56000000000000005</v>
-    <v>-2.3849999999999996E-2</v>
-    <v>-0.03</v>
-    <v>-1.3079999999999999E-3</v>
+    <v>-0.55000000000000004</v>
+    <v>-2.3424E-2</v>
+    <v>0.06</v>
+    <v>2.617E-3</v>
     <v>USD</v>
     <v>Hewlett Packard Enterprise Company is the global edge-to-cloud company. It delivers open and intelligent technology solutions as a service. Its offering includes cloud services, compute, high performance computing &amp; artificial intelligence, intelligent edge, software, and storage. Its segments include Server, Hybrid Cloud, Intelligent Edge, Financial Services, and Corporate Investments and Other. Its Server segment offerings consist of general-purpose servers for multi-workload computing, workload-optimized servers, and integrated systems. Its Hybrid Cloud segment offers a range of cloud-native and hybrid solutions across storage, private cloud and the infrastructure software-as-a-service space. Its Intelligent Edge segment offers wired and wireless local area networks, campus, branch, and data center switching, and others. Its Financial Services segment provides flexible investment solutions, such as leasing, financing, IT consumption, utility programs, and asset management services.</v>
     <v>61000</v>
@@ -5061,21 +5061,21 @@
     <v>23.594999999999999</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45974.989948251561</v>
+    <v>45975.011304791406</v>
     <v>67</v>
     <v>22.65</v>
-    <v>30241794000</v>
+    <v>30254988500</v>
     <v>HEWLETT PACKARD ENTERPRISE COMPANY</v>
     <v>HEWLETT PACKARD ENTERPRISE COMPANY</v>
     <v>23.27</v>
-    <v>27.491900000000001</v>
+    <v>27.503900000000002</v>
     <v>23.48</v>
-    <v>22.92</v>
-    <v>22.9</v>
+    <v>22.93</v>
+    <v>22.99</v>
     <v>1319450000</v>
     <v>HPE</v>
     <v>HEWLETT PACKARD ENTERPRISE COMPANY (XNYS:HPE)</v>
-    <v>42096941</v>
+    <v>42098212</v>
     <v>39266480</v>
     <v>2015</v>
   </rv>
@@ -5108,7 +5108,7 @@
     <v>16</v>
     <v>17</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a1uu5r</v>
     <v>268435456</v>
@@ -5117,10 +5117,10 @@
     <v>39.795000000000002</v>
     <v>21.21</v>
     <v>1.228</v>
-    <v>-0.23</v>
-    <v>-9.1229999999999992E-3</v>
-    <v>0.01</v>
-    <v>4.0030000000000003E-4</v>
+    <v>-0.22500000000000001</v>
+    <v>-8.9249999999999989E-3</v>
+    <v>0.23</v>
+    <v>9.2069999999999999E-3</v>
     <v>USD</v>
     <v>HP Inc. is a global provider of personal computing and other digital access devices, imaging and printing products, and related technologies, solutions, and services. The Company delivers a range of devices, services and subscriptions for personal computing, printing, three-dimensional (3D) printing, hybrid work, gaming, and more. It operates through three segments: Personal Systems, Printing and Corporate Investments. The Personal Systems segment offers commercial and consumer desktops and notebooks, detachables and convertibles, workstations, thin clients, commercial mobility devices, retail point-of-sale (POS) systems, displays, hybrid systems, software, solutions, and services. Printing segment offers consumer and commercial printer hardware, supplies, services, and solutions. Printing segment is also focused on graphics and 3D printing and personalization in the commercial and industrial markets. Corporate Investments include certain business incubation and investment projects.</v>
     <v>58000</v>
@@ -5132,21 +5132,21 @@
     <v>72</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45974.979166700781</v>
+    <v>45975.01510943281</v>
     <v>73</v>
     <v>24.934999999999999</v>
-    <v>23348850964</v>
+    <v>23353524473</v>
     <v>HP INC.</v>
     <v>HP INC.</v>
     <v>25.2</v>
-    <v>9.0998999999999999</v>
+    <v>9.1016999999999992</v>
     <v>25.21</v>
-    <v>24.98</v>
-    <v>24.99</v>
+    <v>24.984999999999999</v>
+    <v>25.21</v>
     <v>934701800</v>
     <v>HPQ</v>
     <v>HP INC. (XNYS:HPQ)</v>
-    <v>12224001</v>
+    <v>12224084</v>
     <v>12149913</v>
     <v>1998</v>
   </rv>
@@ -5225,8 +5225,8 @@
     <v>0.5796</v>
     <v>0.59499999999999997</v>
     <v>9.0980000000000002E-3</v>
-    <v>1.9900000000000001E-2</v>
-    <v>3.0170000000000002E-4</v>
+    <v>-0.04</v>
+    <v>-6.0630000000000005E-4</v>
     <v>USD</v>
     <v>The Kroger Co. is a food and drug retailer. The Company operates supermarkets, multi-department stores and fulfillment centers throughout the United States. It operates approximately 2,731 supermarkets, 2,273 pharmacies and 1,702 fuel centers in over 35 states and the District of Columbia while also operating online through a digital ecosystem to offer customers an omnichannel shopping experience. The Company also manufactures and processes food for sale in its supermarkets and online. It offers Pickup and Harris Teeter ExpressLane personalized, order online, pick-up at the store services at approximately 2,412 of its supermarkets and provides delivery, which allows it to offer digital solutions to substantially all of its customers. Its delivery solutions include orders delivered to customers at retail store locations, customer fulfillment centers and orders placed through third-party platforms. The Company also offers customer-facing apps and interfaces.</v>
     <v>409000</v>
@@ -5237,7 +5237,7 @@
     <v>66.125</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>45974.985415775001</v>
+    <v>45975.023361075779</v>
     <v>79</v>
     <v>65.39</v>
     <v>43733447809</v>
@@ -5247,11 +5247,11 @@
     <v>16.7194</v>
     <v>65.400000000000006</v>
     <v>65.995000000000005</v>
-    <v>65.989900000000006</v>
+    <v>65.930000000000007</v>
     <v>662678200</v>
     <v>KR</v>
     <v>THE KROGER CO. (XNYS:KR)</v>
-    <v>5226861</v>
+    <v>5226931</v>
     <v>6028036</v>
     <v>1902</v>
   </rv>
@@ -5333,8 +5333,8 @@
     <v>1.4316</v>
     <v>-0.44</v>
     <v>-5.1462000000000001E-2</v>
-    <v>-0.02</v>
-    <v>-2.4629999999999999E-3</v>
+    <v>-2.0199999999999999E-2</v>
+    <v>-2.4879999999999998E-3</v>
     <v>USD</v>
     <v>Lumen Technologies, Inc. is a networking company, which connects people, data, and applications quickly and securely. The Company is engaged in providing an array of integrated products and services to its domestic and global business customers and its domestic mass market customers. It operates through two segments: Business segment and Mass Markets segment. The Company conducts its operations under four brands: Lumen, which is its flagship brand for serving the enterprise and wholesale markets, including its Private Connectivity Fabric (PCF) network architecture, Lumen Digital products, and its priority services including Edge, Network-as-a-Service and cybersecurity; Quantum Fiber, which provides fiber-based broadband services to residential and small business customers; CenturyLink, which is engaged in providing primarily mass-marketed copper-based communications services, and Black Lotus Labs, which is its cyberthreat research and intelligence arm.</v>
     <v>24000</v>
@@ -5345,7 +5345,7 @@
     <v>8.7885000000000009</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45974.988139015622</v>
+    <v>45975.023072661716</v>
     <v>85</v>
     <v>7.99</v>
     <v>8317972839</v>
@@ -5354,11 +5354,11 @@
     <v>8.43</v>
     <v>8.5500000000000007</v>
     <v>8.11</v>
-    <v>8.1</v>
+    <v>8.0998000000000001</v>
     <v>1025644000</v>
     <v>LUMN</v>
     <v>LUMEN TECHNOLOGIES, INC. (XNYS:LUMN)</v>
-    <v>22360518</v>
+    <v>22364410</v>
     <v>23783061</v>
     <v>1968</v>
   </rv>
@@ -5386,8 +5386,8 @@
     <v>1.1100000000000001</v>
     <v>-1.75</v>
     <v>-6.5518999999999994E-2</v>
-    <v>-0.02</v>
-    <v>-8.0130000000000002E-4</v>
+    <v>0.02</v>
+    <v>8.0130000000000002E-4</v>
     <v>USD</v>
     <v>Moderna, Inc. is a biotechnology company. The Company is advancing a new class of medicines made of messenger ribonucleic acid (mRNA). It is developing therapeutics and vaccines for infectious diseases, immuno-oncology, rare diseases and autoimmune diseases. mRNA medicines are designed to direct the body’s cells to produce intracellular, membrane or secreted proteins that have a therapeutic or preventive benefit with the potential to address a spectrum of diseases. The Company’s diverse development pipeline consists of 44 therapeutic and vaccine programs, 11 of which are in late-stage development. Its commercial products include Spikevax (its COVID vaccine) and mRESVIA (its respiratory syncytial virus (RSV) vaccine). Additionally, it has achieved four positive Phase III data readouts for its COVID vaccine (mRNA-1283), its RSV vaccine for high-risk adults aged 18 to 59 (mRNA-1345), its seasonal flu+COVID vaccine (mRNA-1083), and its seasonal flu vaccine (mRNA-1010).</v>
     <v>5800</v>
@@ -5398,7 +5398,7 @@
     <v>26.2</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45974.989718957811</v>
+    <v>45975.023188668747</v>
     <v>88</v>
     <v>24.8</v>
     <v>9751360320</v>
@@ -5408,11 +5408,11 @@
     <v>0</v>
     <v>26.71</v>
     <v>24.96</v>
-    <v>24.94</v>
+    <v>24.98</v>
     <v>390679500</v>
     <v>MRNA</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
-    <v>10683011</v>
+    <v>10685609</v>
     <v>11403292</v>
     <v>2016</v>
   </rv>
@@ -5456,8 +5456,8 @@
     <v>1.0667</v>
     <v>-7.85</v>
     <v>-1.5358E-2</v>
-    <v>0.81</v>
-    <v>1.609E-3</v>
+    <v>1.18</v>
+    <v>2.3449999999999999E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>228000</v>
@@ -5469,7 +5469,7 @@
     <v>93</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45974.99055479141</v>
+    <v>45975.023629409377</v>
     <v>94</v>
     <v>501.29</v>
     <v>3740641020330</v>
@@ -5479,11 +5479,11 @@
     <v>35.807600000000001</v>
     <v>511.14</v>
     <v>503.29</v>
-    <v>504.1</v>
+    <v>504.47</v>
     <v>7432377000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>25259620</v>
+    <v>25267000</v>
     <v>21942106</v>
     <v>1993</v>
   </rv>
@@ -5511,8 +5511,8 @@
     <v>0.73280000000000001</v>
     <v>-1.9</v>
     <v>-2.2120999999999998E-2</v>
-    <v>0.21</v>
-    <v>2.5000000000000001E-3</v>
+    <v>0.01</v>
+    <v>1.1910000000000001E-4</v>
     <v>USD</v>
     <v>NextEra Energy, Inc. is an electric power and energy infrastructure company. It operates through its wholly owned subsidiaries, NextEra Energy Resources, LLC and NextEra Energy Transmission, LLC (collectively, NEER) and Florida Power &amp; Light Company (FPL). Its segments include NEER and FPL. FPL segment is a rate-regulated electric utility engaged in the generation, transmission, distribution and sale of electric energy in Florida. FPL has approximately 35,052 megawatts of net generating capacity, over 91,000 circuit miles of transmission and distribution lines and 921 substations. The NEER segment owns, develops, constructs, manages and operates electric generation facilities in wholesale energy markets in the United States and Canada and includes assets and investments in other businesses with a clean energy focus, such as battery storage, natural gas pipelines, and renewable fuels. It owns, develops, constructs and operates rate-regulated transmission facilities in North America.</v>
     <v>16800</v>
@@ -5523,21 +5523,21 @@
     <v>85.93</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>Stock</v>
-    <v>45974.99033532344</v>
+    <v>45975.020733135934</v>
     <v>97</v>
     <v>83.93</v>
     <v>178875300000</v>
     <v>NEXTERA ENERGY, INC.</v>
     <v>NEXTERA ENERGY, INC.</v>
     <v>85.78</v>
-    <v>26.6753</v>
+    <v>27.278400000000001</v>
     <v>85.89</v>
     <v>83.99</v>
-    <v>84.2</v>
+    <v>84</v>
     <v>2082610000</v>
     <v>NEE</v>
     <v>NEXTERA ENERGY, INC. (XNYS:NEE)</v>
-    <v>11858546</v>
+    <v>11858890</v>
     <v>9023713</v>
     <v>1984</v>
   </rv>
@@ -5565,8 +5565,8 @@
     <v>0.42820000000000003</v>
     <v>-3.42</v>
     <v>-3.6747000000000002E-2</v>
-    <v>-0.12</v>
-    <v>-1.3370000000000001E-3</v>
+    <v>0.3</v>
+    <v>3.3439999999999998E-3</v>
     <v>USD</v>
     <v>Newmont Corporation is a gold company and a producer of copper, zinc, lead, and silver with operations and/or assets in the Africa, Australia, Latin America &amp; Caribbean, North America, and Papua New Guinea regions. The Company's operations include Brucejack, Red Chris, Penasquito, Merian, Cerro Negro, Yanacocha, Boddington, Tanami, Cadia, Lihir, Ahafo, and NGM. The Brucejack operation includes four mining leases and six core mineral claims which cover 8,169 acres (3,306 hectares) and 337 mineral claims covering 298,795 acres (120,918 hectares). The Red Chris operation includes five mining leases which cover 12,703 acres and 199 mineral claims, encompassing an area of 164,903 acres (66,734 hectares). Penasquito includes 20 mining concessions for operations comprising 113,231 acres (45,823 hectares) and 60 mining concessions for exploration of 107,456 acres (43,486 hectares). The Merian operation includes one right of exploitation encompassing an area of 41,687 acres (16,870 hectares).</v>
     <v>22200</v>
@@ -5577,7 +5577,7 @@
     <v>93.75</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>45974.988545092187</v>
+    <v>45975.013890601564</v>
     <v>100</v>
     <v>89.57</v>
     <v>101563800000</v>
@@ -5587,11 +5587,11 @@
     <v>13.9316</v>
     <v>93.07</v>
     <v>89.65</v>
-    <v>89.6</v>
+    <v>90.02</v>
     <v>1091263000</v>
     <v>NEM</v>
     <v>NEWMONT CORPORATION (XNYS:NEM)</v>
-    <v>9707799</v>
+    <v>9709024</v>
     <v>12112852</v>
     <v>2001</v>
   </rv>
@@ -5619,8 +5619,8 @@
     <v>1.6996</v>
     <v>-3.27</v>
     <v>-2.8249999999999998E-3</v>
-    <v>2.77</v>
-    <v>2.3999999999999998E-3</v>
+    <v>2.63</v>
+    <v>2.2789999999999998E-3</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. It provides paid memberships in over 190 countries offering television (TV) series, films and games across a variety of genres and languages. It allows members to play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. It is engaged in scaling its streaming service, such as introducing games and advertising on its service, as well as offering live programming. It is developing technology and utilizing third-party cloud computing, technology and other services. The Company is also engaged in scaling its own studio operations to produce original content.</v>
     <v>14000</v>
@@ -5631,7 +5631,7 @@
     <v>1167.33</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45974.990449941404</v>
+    <v>45975.023772685156</v>
     <v>103</v>
     <v>1145.69</v>
     <v>489084532629</v>
@@ -5641,11 +5641,11 @@
     <v>48.2179</v>
     <v>1157.5</v>
     <v>1154.23</v>
-    <v>1157</v>
+    <v>1156.8599999999999</v>
     <v>423732300</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>4010451</v>
+    <v>4012762</v>
     <v>4512229</v>
     <v>1997</v>
   </rv>
@@ -5662,7 +5662,7 @@
     <v>2</v>
     <v>13</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>bwxx4c</v>
     <v>268435456</v>
@@ -5671,10 +5671,10 @@
     <v>24.36</v>
     <v>2.46</v>
     <v>0.56850000000000001</v>
-    <v>-0.19</v>
-    <v>-6.9852999999999998E-2</v>
-    <v>-0.08</v>
-    <v>-3.1621000000000003E-2</v>
+    <v>-0.2</v>
+    <v>-7.3528999999999997E-2</v>
+    <v>3.4700000000000002E-2</v>
+    <v>1.3715E-2</v>
     <v>USD</v>
     <v>FiscalNote Holdings, Inc. is a provider of AI-driven policy and regulatory intelligence solutions. The Company delivers critical, actionable legal and policy insights in an evolving political, regulatory and macroeconomic environment. By combining AI and other technologies with analysis and workflow tools, it provides data and information that enables customers who use its products to manage policy change, address regulatory developments, and mitigate policy risk. Its portfolio of public policy intelligence products includes PolicyNote, CQ Federal, and Curate. It offers EU Issue Tracker, which provides public policy intelligence for the European Union, as well as professional services which enable customers to cover over 80 countries globally. It offers its advocacy platform (VoterVoice) and constituent management services platform (Fireside), which connect citizens with their government representatives and vice versa. It offers macroeconomic analysis through FrontierView.</v>
     <v>571</v>
@@ -5685,20 +5685,20 @@
     <v>2.6999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45974.97916668906</v>
+    <v>45975.020815138283</v>
     <v>106</v>
     <v>2.46</v>
-    <v>39746021</v>
+    <v>39588922</v>
     <v>FISCALNOTE HOLDINGS, INC.</v>
     <v>FISCALNOTE HOLDINGS, INC.</v>
     <v>2.63</v>
     <v>2.72</v>
-    <v>2.5299999999999998</v>
-    <v>2.4500000000000002</v>
+    <v>2.52</v>
+    <v>2.5647000000000002</v>
     <v>15709890</v>
     <v>NOTE</v>
     <v>FISCALNOTE HOLDINGS, INC. (XNYS:NOTE)</v>
-    <v>280315</v>
+    <v>280827</v>
     <v>246180</v>
     <v>2022</v>
   </rv>
@@ -5726,8 +5726,8 @@
     <v>1.149</v>
     <v>0.66</v>
     <v>1.7201000000000001E-2</v>
-    <v>0.2</v>
-    <v>5.1219999999999998E-3</v>
+    <v>0.22</v>
+    <v>5.6340000000000001E-3</v>
     <v>USD</v>
     <v>Pan American Silver Corp. is a producer of silver and gold in the Americas, operating mines in Canada, Mexico, Peru, Brazil, Bolivia, Chile and Argentina. It owns a 100% interest in the Escobal mine in Guatemala, and it holds interests in exploration and development projects. Its segments include Silver, Gold and Other. Silver segment includes operations of La Colorada, Huaron, San Vicente, Cerro Moro, La Colorada Skarn, Navidad and Escobal. Gold segment includes operations in Dolores, Shahuindo, Timmins, Jacobina, El Penon and Minera Florida. La Colorada mine produces silver-rich lead and zinc concentrates from a flotation plant treating sulfide ore. Huaron mine produces silver-rich zinc, lead and copper concentrates using floatation technology. It owns 44% joint venture interest in the Juanicipio silver mine in Zacatecas, Mexico, operated by Fresnillo plc, along with 100% ownership of the Larder exploration project and a 100% earn-in interest in the Deer Trail exploration project.</v>
     <v>9000</v>
@@ -5738,7 +5738,7 @@
     <v>40.79</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>45974.988143390627</v>
+    <v>45975.022784664063</v>
     <v>109</v>
     <v>38.659999999999997</v>
     <v>22676990000</v>
@@ -5748,11 +5748,11 @@
     <v>22.572399999999998</v>
     <v>38.369999999999997</v>
     <v>39.03</v>
-    <v>39.25</v>
+    <v>39.270000000000003</v>
     <v>421976000</v>
     <v>PAAS</v>
     <v>Pan American Silver Corp. (XNYS:PAAS)</v>
-    <v>9530626</v>
+    <v>9544035</v>
     <v>6240595</v>
     <v>1979</v>
   </rv>
@@ -5780,8 +5780,8 @@
     <v>0.1865</v>
     <v>-0.12</v>
     <v>-1.8547000000000001E-2</v>
-    <v>-0.65</v>
-    <v>-0.10236200000000001</v>
+    <v>-0.28999999999999998</v>
+    <v>-4.5669000000000001E-2</v>
     <v>USD</v>
     <v>Profound Medical Corp. is a commercial-stage medical device company that develops and markets customizable, incision-free therapies for the ablation of diseased tissue. It is commercializing TULSA-PRO, a technology that combines real-time magnetic resonance imaging (MRI), AI-enhanced planning, robotically driven transurethral ultrasound and closed-loop temperature feedback control. The TULSA procedure, performed using the TULSA-PRO system, has the potential of becoming a mainstream treatment modality across the entire prostate disease spectrum; ranging from low-, intermediate-, or high-risk prostate cancer; to hybrid patients suffering from both prostate cancer and benign prostatic hyperplasia (BPH); to men with BPH only; and also, to patients requiring salvage therapy for radio-recurrent localized prostate cancer. It is also commercializing Sonalleve, a therapeutic platform that is CE marked for the treatment of uterine fibroids and palliative pain treatment of bone metastases.</v>
     <v>131</v>
@@ -5792,7 +5792,7 @@
     <v>6.5</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45974.92777857578</v>
+    <v>45975.010698599217</v>
     <v>112</v>
     <v>6.0616000000000003</v>
     <v>273252000</v>
@@ -5802,11 +5802,11 @@
     <v>0</v>
     <v>6.47</v>
     <v>6.35</v>
-    <v>5.7</v>
+    <v>6.06</v>
     <v>30193590</v>
     <v>PROF</v>
     <v>Profound Medical Corp. (XNAS:PROF)</v>
-    <v>84532</v>
+    <v>84862</v>
     <v>62541</v>
     <v>2014</v>
   </rv>
@@ -5834,8 +5834,8 @@
     <v>0.47310000000000002</v>
     <v>-0.35</v>
     <v>-6.9306999999999994E-2</v>
-    <v>-0.48299999999999998</v>
-    <v>-0.102766</v>
+    <v>-0.38</v>
+    <v>-8.0851000000000006E-2</v>
     <v>USD</v>
     <v>POET Technologies Inc. is a design and development company. It offers high-speed optical engines, light source products and custom optical modules to the artificial intelligence (AI) systems market and to hyperscale data centers. Its photonic integration solutions are based on the POET Optical Interposer, a novel, patented platform that allows the integration of electronic and photonic devices into a single chip using wafer-level semiconductor manufacturing techniques. Its Optical Interposer-based products consume less power than comparable products, are smaller in size and are readily scalable to high production volumes. In addition, it has designed and produced novel light source products for chip-to-chip data communication within and between AI servers, the next frontier for solving bandwidth and latency problems in AI systems. Its Optical Interposer platform solves device integration challenges across a range of communication, computing and sensing applications.</v>
     <v>180</v>
@@ -5846,7 +5846,7 @@
     <v>4.99</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45974.990589721878</v>
+    <v>45975.02365711797</v>
     <v>115</v>
     <v>4.58</v>
     <v>490556860</v>
@@ -5856,11 +5856,11 @@
     <v>0</v>
     <v>5.05</v>
     <v>4.7</v>
-    <v>4.2169999999999996</v>
+    <v>4.32</v>
     <v>104373800</v>
     <v>POET</v>
     <v>POET Technologies Inc. (XNAS:POET)</v>
-    <v>9715484</v>
+    <v>9815988</v>
     <v>15414153</v>
     <v>2010</v>
   </rv>
@@ -5877,7 +5877,7 @@
     <v>2</v>
     <v>13</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a21g2w</v>
     <v>268435456</v>
@@ -5886,10 +5886,10 @@
     <v>2.59</v>
     <v>0.60099999999999998</v>
     <v>1.5469999999999999</v>
-    <v>-1E-4</v>
-    <v>-1.6129999999999999E-4</v>
-    <v>-1.9900000000000001E-2</v>
-    <v>-3.2101999999999999E-2</v>
+    <v>-1.52E-2</v>
+    <v>-2.4516E-2</v>
+    <v>-1.15E-2</v>
+    <v>-1.8550999999999998E-2</v>
     <v>USD</v>
     <v>Power REIT (the Trust) is an internally managed real estate investment trust. The Trust is engaged in the ownership, leasing, acquisition, development, and disposition of special purpose real estate assets. The Trust owns a portfolio of real estate assets related to transportation, energy infrastructure and Controlled Environment Agriculture (CEA) in the United States. It owns its assets through direct and indirect wholly owned and special purpose subsidiaries. The Trust’s assets consist of approximately 112 miles of railroad infrastructure and related real estate which is owned by its subsidiary, Pittsburgh &amp; West Virginia Railroad (P&amp;WV), over 447 acres of fee simple land leased to a number of utility scale solar power generating projects with an aggregate generating capacity of approximately 82 Megawatts (MW) and over 239 acres of land with approximately 2,066,000 square feet of existing or under construction CEA properties in the form of greenhouses.</v>
     <v>2</v>
@@ -5900,7 +5900,7 @@
     <v>0.66210000000000002</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>45974.979166678124</v>
+    <v>45975.022505960158</v>
     <v>118</v>
     <v>0.60099999999999998</v>
     <v>2101590</v>
@@ -5908,12 +5908,12 @@
     <v>POWER REIT</v>
     <v>0.62</v>
     <v>0.62</v>
-    <v>0.61990000000000001</v>
-    <v>0.6</v>
+    <v>0.6048</v>
+    <v>0.60840000000000005</v>
     <v>3389660</v>
     <v>PW</v>
     <v>POWER REIT (XNYS:PW)</v>
-    <v>26036</v>
+    <v>26051</v>
     <v>88025</v>
     <v>2011</v>
   </rv>
@@ -5930,7 +5930,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a2218m</v>
     <v>268435456</v>
@@ -5941,8 +5941,8 @@
     <v>1.1382000000000001</v>
     <v>-0.06</v>
     <v>-1.5020000000000001E-3</v>
-    <v>1.1200000000000001</v>
-    <v>2.8083999999999998E-2</v>
+    <v>0.48</v>
+    <v>1.2036E-2</v>
     <v>USD</v>
     <v>Rigel Pharmaceuticals, Inc. is a biotechnology company. The Company is engaged in developing and providing novel therapies that significantly improve the lives of patients with hematologic disorders and cancer. It is focused on products that address signaling pathways that are critical to disease mechanisms. Its first product is TAVALISSE (fostamatinib disodium hexahydrate) tablets, the approved oral spleen tyrosine kinase inhibitor for the treatment of adult patients with chronic immune thrombocytopenia (ITP) who have had an insufficient response to a previous treatment. Its second product is REZLIDHIA (olutasidenib) capsules for the treatment of adult patients with relapsed or refractory (R/R) acute myeloid leukemia (AML) with a susceptible isocitrate dehydrogenase-1 (IDH1) mutation as detected by an FDA-approved test. Its GAVRETO (pralsetinib) product is a once daily, small molecule, oral, kinase inhibitor of wild type rearranged during transfection (RET) and oncogenic RET fusions.</v>
     <v>162</v>
@@ -5953,7 +5953,7 @@
     <v>40.130000000000003</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45974.963213240626</v>
+    <v>45975.016803448438</v>
     <v>121</v>
     <v>38.58</v>
     <v>723875439</v>
@@ -5963,11 +5963,11 @@
     <v>6.4660000000000002</v>
     <v>39.94</v>
     <v>39.880000000000003</v>
-    <v>41</v>
+    <v>40.36</v>
     <v>18151340</v>
     <v>RIGL</v>
     <v>RIGEL PHARMACEUTICALS, INC. (XNAS:RIGL)</v>
-    <v>456959</v>
+    <v>457083</v>
     <v>600217</v>
     <v>1996</v>
   </rv>
@@ -6151,8 +6151,8 @@
     <v>1.4710000000000001</v>
     <v>-0.21</v>
     <v>-2.2012999999999998E-2</v>
-    <v>0.15</v>
-    <v>1.6076999999999998E-2</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-7.5029999999999993E-3</v>
     <v>USD</v>
     <v>Stratasys Ltd. provides polymer-based 3D printing solutions for industries such as aerospace, automotive, consumer products and healthcare. The Company's solutions consist of 3D printing systems, consumables, software, paid parts, and professional services and encompass everything from prototyping and design all the way through production. Its printers include F3300, FDM Fortus 450mc, PolyJet J3 DentaJet, P3 DLP Origin One Dental, SLA Neo, PolyJet J5 Digital Anatomy, and Powder Bed Fusion SAF H350. The Company's technologies include FDM Technology, PolyJet Technology, P3 DLP Technology, SAF Technology, Stereolithography Technology and 3DFashion Technology. Its FDM 3D printing technology has the ability to use a variety of production grade thermoplastic materials featuring surface resolution, chemical and heat resistance, color, and mechanical properties necessary for production of functional prototypes and parts for a variety of industries with specific demands and requirements.</v>
     <v>1779</v>
@@ -6163,7 +6163,7 @@
     <v>9.92</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45974.985895810154</v>
+    <v>45975.015917488279</v>
     <v>133</v>
     <v>9.09</v>
     <v>793920302</v>
@@ -6173,11 +6173,11 @@
     <v>0</v>
     <v>9.5399999999999991</v>
     <v>9.33</v>
-    <v>9.48</v>
+    <v>9.26</v>
     <v>85093280</v>
     <v>SSYS</v>
     <v>STRATASYS LTD (XNAS:SSYS)</v>
-    <v>1394911</v>
+    <v>1395006</v>
     <v>954971</v>
     <v>1998</v>
   </rv>
@@ -6205,8 +6205,8 @@
     <v>1.8774</v>
     <v>-28.61</v>
     <v>-6.6442000000000001E-2</v>
-    <v>0.46</v>
-    <v>1.1440000000000001E-3</v>
+    <v>-0.1802</v>
+    <v>-4.483E-4</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offers services related to its products. Its segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. It also includes sales of used vehicles, non-warranty maintenance services and collisions, part sales, paid supercharging, insurance services revenue and retail merchandise sales. The energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
     <v>125665</v>
@@ -6217,7 +6217,7 @@
     <v>424.5</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45974.990659687501</v>
+    <v>45975.023773541405</v>
     <v>136</v>
     <v>396.34</v>
     <v>1336945979810</v>
@@ -6227,11 +6227,11 @@
     <v>278.71460000000002</v>
     <v>430.6</v>
     <v>401.99</v>
-    <v>402.45</v>
+    <v>401.8098</v>
     <v>3325819000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>118627487</v>
+    <v>118815564</v>
     <v>82861773</v>
     <v>2024</v>
   </rv>
@@ -6259,8 +6259,8 @@
     <v>1.3118000000000001</v>
     <v>-8.4499999999999993</v>
     <v>-2.9076000000000001E-2</v>
-    <v>0.1</v>
-    <v>3.5439999999999999E-4</v>
+    <v>-0.02</v>
+    <v>-7.0870000000000004E-5</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -6271,7 +6271,7 @@
     <v>289.49979999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45974.990427476565</v>
+    <v>45975.023757187497</v>
     <v>139</v>
     <v>280</v>
     <v>1233851000000</v>
@@ -6281,11 +6281,11 @@
     <v>28.0777</v>
     <v>290.62</v>
     <v>282.17</v>
-    <v>282.3</v>
+    <v>282.18</v>
     <v>5186523000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>13814035</v>
+    <v>13824788</v>
     <v>14394948</v>
     <v>1987</v>
   </rv>
@@ -6363,8 +6363,8 @@
     <v>1.4928999999999999</v>
     <v>-0.69499999999999995</v>
     <v>-0.103269</v>
-    <v>-2.5000000000000001E-2</v>
-    <v>-4.143E-3</v>
+    <v>4.3E-3</v>
+    <v>7.1249999999999992E-4</v>
     <v>USD</v>
     <v>Uniti Group Inc. is a premier insurgent fiber provider dedicated to enabling mission-critical connectivity across the United States. The Company is engaged in building, operating, and delivering fast and reliable communications services, empowering more than a million consumers and businesses in the digital economy. Its portfolio of services is offered through a suite of brands: Uniti Wholesale, Kinetic, Uniti Fiber, and Uniti Solutions. Through Uniti Wholesale, it builds customer-driven dark fiber infrastructure and provides tailored high-capacity wavelengths, Ethernet and cell site backhaul, leveraging its optical transport network for carriers, hyperscalers, government, and Fortune 500 customers across the United States and Canada. Kinetic builds and operates fiber networks and provides transformative multi-Gigabit Internet access to homes and businesses in small and medium-sized communities across the Southeast, Southwest, Northeast and Midwest U.S.</v>
     <v>758</v>
@@ -6375,7 +6375,7 @@
     <v>6.7149999999999999</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45974.977961666409</v>
+    <v>45974.999617881251</v>
     <v>145</v>
     <v>6.03</v>
     <v>1442584070</v>
@@ -6385,11 +6385,11 @@
     <v>1.1886000000000001</v>
     <v>6.73</v>
     <v>6.0350000000000001</v>
-    <v>6.01</v>
+    <v>6.0392999999999999</v>
     <v>239036300</v>
     <v>UNIT</v>
     <v>UNITI GROUP INC. (XNAS:UNIT)</v>
-    <v>1989693</v>
+    <v>1989893</v>
     <v>2745375</v>
     <v>2024</v>
   </rv>
@@ -6528,7 +6528,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>5</v>
     <v>en-US</v>
     <v>a1y7rw</v>
     <v>268435456</v>
@@ -6539,8 +6539,8 @@
     <v>0.82979999999999998</v>
     <v>-0.1</v>
     <v>-9.0830000000000008E-3</v>
-    <v>-0.09</v>
-    <v>-8.2489999999999994E-3</v>
+    <v>0.06</v>
+    <v>5.5000000000000005E-3</v>
     <v>USD</v>
     <v>Viatris Inc. is a global healthcare company. The Company's segments include Developed Markets, Greater China, JANZ, and Emerging Markets. The Developed Markets segment comprises its operations primarily in North America and Europe. The Greater China segment includes its operations in China, Taiwan and Hong Kong. The JANZ segment reflects its operations in Japan, Australia, and New Zealand. The Emerging Markets segment encompasses its presence in more than 125 countries with developing markets and emerging economies, including in Asia, Africa, Eastern Europe, Latin America, and the Middle East, as well as the Company’s Antiretroviral medicines (ARV) franchise. Its pipeline and research and development capabilities include expertise in formulation, device development, toxicology, analytical, clinical, bioanalytical, medical affairs, product safety and risk management across a range of therapeutic areas. It produces oral solid doses, injectables, and products with complex dosage forms.</v>
     <v>32000</v>
@@ -6551,7 +6551,7 @@
     <v>11.14</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45974.989032858597</v>
+    <v>45975.012279582814</v>
     <v>157</v>
     <v>10.88</v>
     <v>12565810700</v>
@@ -6561,11 +6561,11 @@
     <v>0</v>
     <v>11.01</v>
     <v>10.91</v>
-    <v>10.82</v>
+    <v>10.97</v>
     <v>1151770000</v>
     <v>VTRS</v>
     <v>VIATRIS INC. (XNAS:VTRS)</v>
-    <v>7382764</v>
+    <v>7382767</v>
     <v>8900053</v>
     <v>2019</v>
   </rv>
@@ -6645,8 +6645,8 @@
     <v>0.37740000000000001</v>
     <v>0.68</v>
     <v>5.757E-3</v>
-    <v>0.34</v>
-    <v>2.862E-3</v>
+    <v>0.4</v>
+    <v>3.3670000000000002E-3</v>
     <v>USD</v>
     <v>Exxon Mobil Corporation is an energy provider and chemical manufacturer. The Company’s principal business involves exploration for, and production of, crude oil and natural gas; the manufacture, trade, transport and sale of crude oil, natural gas, petroleum products, petrochemicals and a wide variety of specialty products; and pursuit of lower-emission and other new business opportunities, including carbon capture and storage, hydrogen, lower-emission fuels, Proxxima systems, carbon materials, and lithium. Its Upstream segment explores for and produces crude oil and natural gas. The Energy Products, Chemical Products, and Specialty Products segments manufacture and sell petroleum products and petrochemicals. Energy Products segment includes fuels, aromatics, and catalysts and licensing. Chemical Products segment consists of olefins, polyolefins, and intermediates. Specialty Products segment includes finished lubricants, basestocks and waxes, synthetics, and elastomers and resins.</v>
     <v>61000</v>
@@ -6657,7 +6657,7 @@
     <v>119.76</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45974.990174224222</v>
+    <v>45975.023629050782</v>
     <v>163</v>
     <v>118.28</v>
     <v>500999320800</v>
@@ -6667,11 +6667,11 @@
     <v>17.268899999999999</v>
     <v>118.12</v>
     <v>118.8</v>
-    <v>119.13</v>
+    <v>119.19</v>
     <v>4217166000</v>
     <v>XOM</v>
     <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
-    <v>17285367</v>
+    <v>17287546</v>
     <v>13023924</v>
     <v>1882</v>
   </rv>
@@ -6707,7 +6707,7 @@
     <v>6.6550000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45974.979166678124</v>
+    <v>45975.000000010936</v>
     <v>6.2350000000000003</v>
     <v>291912957</v>
     <v>XPERI INC.</v>
@@ -6888,7 +6888,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>5</v>
     <v>en-US</v>
     <v>ayz4u2</v>
     <v>268435456</v>
@@ -6911,7 +6911,7 @@
     <v>1.57</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>Stock</v>
-    <v>45974.989903020316</v>
+    <v>45975.011156596876</v>
     <v>177</v>
     <v>1.43</v>
     <v>167268258</v>
@@ -6925,7 +6925,7 @@
     <v>114567300</v>
     <v>BLNK</v>
     <v>BLINK CHARGING CO. (XNAS:BLNK)</v>
-    <v>2161907</v>
+    <v>2163023</v>
     <v>3855010</v>
     <v>2006</v>
   </rv>
@@ -7020,8 +7020,8 @@
     <v>1.5996999999999999</v>
     <v>-0.16500000000000001</v>
     <v>-1.2267999999999999E-2</v>
-    <v>0.01</v>
-    <v>7.5300000000000009E-4</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Ford Motor Company is an automobile company. The Company develops and delivers Ford trucks, sport utility vehicles, commercial vans and cars, and Lincoln luxury vehicles, along with connected services. The Company’s segments include Ford Blue, Ford Model e, Ford Pro, and Ford Credit. The Ford Blue segment primarily includes the sale of Ford and Lincoln internal combustion engine (ICE) and hybrid vehicles, service parts, accessories, and digital services for retail customers. The Ford Model e segment primarily includes the sale of its electric vehicles, service parts, accessories, and digital services for retail customers. The Ford Pro segment primarily includes the sale of Ford and Lincoln vehicles, service parts, accessories, and services for commercial, government, and rental customers. The Ford Credit segment consists of the Ford Credit business on a consolidated basis, which is primarily vehicle-related financing and leasing activities. Its vehicle brands are Ford and Lincoln.</v>
     <v>171000</v>
@@ -7033,7 +7033,7 @@
     <v>185</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45974.990480173437</v>
+    <v>45975.023768529689</v>
     <v>186</v>
     <v>13.25</v>
     <v>52934069215</v>
@@ -7043,11 +7043,11 @@
     <v>11.408300000000001</v>
     <v>13.45</v>
     <v>13.285</v>
-    <v>13.29</v>
+    <v>13.28</v>
     <v>3984499000</v>
     <v>F</v>
     <v>FORD MOTOR COMPANY (XNYS:F)</v>
-    <v>71470464</v>
+    <v>71477636</v>
     <v>132086352</v>
     <v>1919</v>
   </rv>
@@ -7064,7 +7064,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a1u1z2</v>
     <v>268435456</v>
@@ -7073,10 +7073,10 @@
     <v>203.2499</v>
     <v>99.5</v>
     <v>1.8124</v>
-    <v>-7.79</v>
-    <v>-4.7961999999999998E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-7.76</v>
+    <v>-4.7777E-2</v>
+    <v>0.37</v>
+    <v>2.3930000000000002E-3</v>
     <v>USD</v>
     <v>Generac Holdings Inc. is a global designer, manufacturer, and provider of energy technology solutions. The Company provides power generation equipment, energy storage systems, energy management devices &amp; solutions, and other power products serving the residential, light commercial, and industrial markets. The Company operates through two segments: Domestic and International. The Domestic segment includes the legacy Generac business and the acquisitions that are based in the United States and Canada. The International segment includes acquisitions not based in the United States and Canada. It designs and manufactures stationary, portable, and mobile power generators with single-engine outputs ranging between 800W and 3,250kW. Its residential automatic standby generators range in output from 7.5kW to 150kW, which predominantly operate on natural gas and liquid propane, and are permanently installed with an automatic transfer switch.</v>
     <v>9239</v>
@@ -7087,21 +7087,21 @@
     <v>163.93</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45974.97916668906</v>
+    <v>45975.018793032032</v>
     <v>189</v>
     <v>154.63</v>
-    <v>9074317744</v>
+    <v>9076078266</v>
     <v>GENERAC HOLDINGS INC.</v>
     <v>GENERAC HOLDINGS INC.</v>
     <v>160.69999999999999</v>
-    <v>29.423100000000002</v>
+    <v>29.428799999999999</v>
     <v>162.41999999999999</v>
-    <v>154.63</v>
-    <v>154.63</v>
+    <v>154.66</v>
+    <v>155</v>
     <v>58684070</v>
     <v>GNRC</v>
     <v>GENERAC HOLDINGS INC. (XNYS:GNRC)</v>
-    <v>1328009</v>
+    <v>1328073</v>
     <v>1373160</v>
     <v>2006</v>
   </rv>
@@ -7129,8 +7129,8 @@
     <v>1.3454999999999999</v>
     <v>-33.229999999999997</v>
     <v>-3.9607999999999997E-2</v>
-    <v>3.26</v>
-    <v>4.0470000000000002E-3</v>
+    <v>3.25</v>
+    <v>4.0350000000000004E-3</v>
     <v>USD</v>
     <v>The Goldman Sachs Group, Inc. is a global financial institution that delivers a range of financial services to a large and diversified client base that includes corporations, financial institutions, governments and individuals. Its segments include Global Banking &amp; Markets, Asset &amp; Wealth Management and Platform Solutions. The Global Banking &amp; Markets segment offers a range of services, including financing, advisory services, risk distribution, and hedging for its institutional and corporate clients. It facilitates client transactions and makes markets in fixed income, equity, currency and commodity products. The Asset &amp; Wealth Management segment manages assets and offers investment products across all asset classes to a diverse set of clients. It also provides investing and wealth advisory solutions. The Platform Solutions segment includes consumer platforms, such as partnerships offering credit cards and point-of-sale financing, and transaction banking and other platform businesses.</v>
     <v>48300</v>
@@ -7141,7 +7141,7 @@
     <v>841.28</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45974.989415717188</v>
+    <v>45975.023350844531</v>
     <v>192</v>
     <v>805.02</v>
     <v>241664389590</v>
@@ -7151,11 +7151,11 @@
     <v>16.367799999999999</v>
     <v>838.97</v>
     <v>805.74</v>
-    <v>808.76</v>
+    <v>808.75</v>
     <v>299928500</v>
     <v>GS</v>
     <v>THE GOLDMAN SACHS GROUP, INC. (XNYS:GS)</v>
-    <v>2554427</v>
+    <v>2555765</v>
     <v>2173298</v>
     <v>1998</v>
   </rv>
@@ -7183,8 +7183,8 @@
     <v>1.4545999999999999</v>
     <v>-0.1</v>
     <v>-8.6206999999999992E-2</v>
-    <v>0.19</v>
-    <v>0.17924499999999999</v>
+    <v>0.15</v>
+    <v>0.141509</v>
     <v>USD</v>
     <v>Luminar Technologies, Inc. is a global automotive technology company, which is engaged in vehicle safety and autonomy. It enables safety and autonomous capabilities for passenger and commercial vehicles and other adjacent markets. Its Autonomy Solutions segment is engaged in the design, manufacturing, and sale of LiDAR sensors, catering mainly to the original equipment manufacturers in the automobile, commercial vehicle, robo-taxi, and adjacent industries. Its Advanced Technologies and Services segment provides advanced semiconductors and related components, as well as design, test, and consulting services to the Autonomy Solutions segment and to various third-party customers, including government agencies and defense contractors, in markets generally unrelated to autonomous vehicles. Its products include Iris lidar, Core Sensor Software, Driving Functions Software, and others. EM4 manufactures and sells packaged photonic components and sub-systems for aerospace and industrial markets.</v>
     <v>580</v>
@@ -7195,7 +7195,7 @@
     <v>1.1399999999999999</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45974.990065022655</v>
+    <v>45975.023588865624</v>
     <v>195</v>
     <v>1.05</v>
     <v>72890327</v>
@@ -7205,11 +7205,11 @@
     <v>0</v>
     <v>1.1599999999999999</v>
     <v>1.06</v>
-    <v>1.25</v>
+    <v>1.21</v>
     <v>68764460</v>
     <v>LAZR</v>
     <v>LUMINAR TECHNOLOGIES, INC. (XNAS:LAZR)</v>
-    <v>13486382</v>
+    <v>13618884</v>
     <v>10548388</v>
     <v>2018</v>
   </rv>
@@ -7237,8 +7237,8 @@
     <v>1.1714</v>
     <v>-0.28999999999999998</v>
     <v>-8.6980000000000009E-3</v>
-    <v>-0.04</v>
-    <v>-1.2110000000000001E-3</v>
+    <v>-0.22</v>
+    <v>-6.6590000000000009E-3</v>
     <v>USD</v>
     <v>Southwest Airlines Co. (Southwest) operates Southwest Airlines, a passenger airline that provides scheduled air transportation in the United States and near-international markets. The Company's fare products include four categories: Wanna Get Away, Wanna Get Away Plus, Anytime, and Business Select to provide customers options when choosing a fare. It also offers ancillary services, such as EarlyBird Check-In, Upgraded Boarding, and transportation of pets and unaccompanied minors, in accordance with Southwest’s respective policies. Its Rapid Rewards loyalty program enables program members to earn points for every dollar spent on Southwest base fares, also including purchases paid with LUV Vouchers, gift cards, or flight credit, with no portion of the purchase price paid with Rapid Rewards points. It operates over 803 Boeing 737 aircraft in its fleet and serves 117 destinations in 42 states, the District of Columbia, the Commonwealth of Puerto Rico, and ten near-international countries.</v>
     <v>72223</v>
@@ -7249,7 +7249,7 @@
     <v>33.799999999999997</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>45974.980309571096</v>
+    <v>45975.021691573435</v>
     <v>198</v>
     <v>32.865000000000002</v>
     <v>17091976054</v>
@@ -7259,11 +7259,11 @@
     <v>49.3947</v>
     <v>33.340000000000003</v>
     <v>33.049999999999997</v>
-    <v>33</v>
+    <v>32.82</v>
     <v>517155100</v>
     <v>LUV</v>
     <v>SOUTHWEST AIRLINES CO. (XNYS:LUV)</v>
-    <v>7849304</v>
+    <v>7849431</v>
     <v>10017631</v>
     <v>1967</v>
   </rv>
@@ -7291,8 +7291,8 @@
     <v>0.8659</v>
     <v>-5.48</v>
     <v>-9.7640000000000001E-3</v>
-    <v>2.23</v>
-    <v>4.0140000000000002E-3</v>
+    <v>0.43</v>
+    <v>7.7399999999999995E-4</v>
     <v>USD</v>
     <v>Mastercard Incorporated is a technology company in the global payments industry. The Company connects consumers, financial institutions, merchants, governments, digital partners, businesses and other organizations worldwide by enabling electronic payments and making those payment transactions secure, simple, smart and accessible. It provides a range of payment solutions and services using its brands, including Mastercard, Maestro and Cirrus. It operates a payments network that provides choice and flexibility for consumers, merchants and its customers. Through its proprietary global payments network, it switches (authorizes, clears and settles) payment transactions. Its additional payments capabilities include automated clearing house (ACH) transactions (both batch and real-time account-based payments). It offers security solutions, consumer acquisition and engagement, business and market insights, gateway, processing and open banking, among other services and solutions.</v>
     <v>35300</v>
@@ -7303,7 +7303,7 @@
     <v>563.6</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45974.990204918751</v>
+    <v>45975.020687615623</v>
     <v>201</v>
     <v>554.86</v>
     <v>499061165850</v>
@@ -7313,11 +7313,11 @@
     <v>35.534100000000002</v>
     <v>561.23</v>
     <v>555.75</v>
-    <v>557.79999999999995</v>
+    <v>556</v>
     <v>897995800</v>
     <v>MA</v>
     <v>MASTERCARD INCORPORATED. (XNYS:MA)</v>
-    <v>2031649</v>
+    <v>2031686</v>
     <v>2672917</v>
     <v>2001</v>
   </rv>
@@ -7345,8 +7345,8 @@
     <v>2.3058999999999998</v>
     <v>-0.14000000000000001</v>
     <v>-1.9443999999999999E-2</v>
-    <v>0.06</v>
-    <v>8.4989999999999996E-3</v>
+    <v>7.0000000000000007E-2</v>
+    <v>9.9150000000000002E-3</v>
     <v>USD</v>
     <v>Novavax, Inc. is a biotechnology company. It is focused on addressing global health challenges through its vaccines and its proven technology platform, including protein-based nanoparticles and its Matrix-M adjuvant. Matrix-M can be used to create vaccines for a variety of diseases to help tackle some of the pressing health challenges. Its proprietary Matrix-M adjuvant, when added to vaccines, has been shown to help induce a stronger and longer-lasting immune response. Its recombinant protein-based nanoparticle technology has been shown to be highly immunogenetic. Its technology platform is used in its authorized COVID-19 vaccine and the R21/Matrix-M adjuvant malaria vaccine. Its late-stage programs include a COVID-19-Influenzavaccine candidate, and an influenza vaccine candidate. R21/Matrix-M adjuvant malaria vaccine, a malaria vaccine developed by its partner. It provides Matrix-M adjuvant for use in various programs in preclinical and clinical stage, and preclinical investigations.</v>
     <v>952</v>
@@ -7357,7 +7357,7 @@
     <v>7.3449999999999998</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45974.985611145312</v>
+    <v>45975.022580196091</v>
     <v>204</v>
     <v>7.02</v>
     <v>1147242940</v>
@@ -7367,11 +7367,11 @@
     <v>3.9253</v>
     <v>7.2</v>
     <v>7.06</v>
-    <v>7.12</v>
+    <v>7.13</v>
     <v>162499000</v>
     <v>NVAX</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
-    <v>5679506</v>
+    <v>5680892</v>
     <v>4399043</v>
     <v>1987</v>
   </rv>
@@ -7428,7 +7428,7 @@
     <v>209</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45974.979166678124</v>
+    <v>45975.000000010936</v>
     <v>210</v>
     <v>131.80500000000001</v>
     <v>277295100000</v>
@@ -7470,8 +7470,8 @@
     <v>0.39219999999999999</v>
     <v>0.105</v>
     <v>2.5040000000000001E-3</v>
-    <v>0.01</v>
-    <v>2.3800000000000001E-4</v>
+    <v>8.5000000000000006E-2</v>
+    <v>2.0230000000000001E-3</v>
     <v>USD</v>
     <v>Occidental Petroleum Corporation is an international energy company with assets primarily in the United States, the Middle East and North Africa. The Company is an oil and gas producer in the United States, including a producer in the Permian and DJ basins, and the offshore Gulf of Mexico. It operates through three segments: oil and gas, chemical and midstream and marketing. The oil and gas segment explores for, develops, and produces oil (which includes condensate), natural gas liquids (NGL) and natural gas. The chemical segment primarily manufactures and markets basic chemicals and vinyls. The midstream and marketing segment purchases, markets, gathers, processes, transports, and stores oil (which includes condensate), NGL, natural gas, carbon dioxide (CO2) and power. The midstream and marketing segment provides flow assurance and maximizes the value of its oil and gas. It also optimizes its transportation and storage capacity and invests in entities that conduct similar activities.</v>
     <v>13323</v>
@@ -7482,7 +7482,7 @@
     <v>42.4499</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45974.988303437502</v>
+    <v>45975.023027615622</v>
     <v>213</v>
     <v>41.664999999999999</v>
     <v>41413319164</v>
@@ -7492,11 +7492,11 @@
     <v>30.687000000000001</v>
     <v>41.93</v>
     <v>42.034999999999997</v>
-    <v>42.03</v>
+    <v>42.104999999999997</v>
     <v>985210400</v>
     <v>OXY</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
-    <v>8664549</v>
+    <v>8676525</v>
     <v>10334964</v>
     <v>1986</v>
   </rv>
@@ -7524,8 +7524,8 @@
     <v>0.4194</v>
     <v>-6.5000000000000002E-2</v>
     <v>-2.513E-3</v>
-    <v>-0.06</v>
-    <v>-2.3259999999999999E-3</v>
+    <v>-5.5E-2</v>
+    <v>-2.1329999999999999E-3</v>
     <v>USD</v>
     <v>Pfizer Inc. is a research-based, global biopharmaceutical company. The Company is engaged in the discovery, development, manufacture, marketing, sale and distribution of biopharmaceutical products worldwide. Its Biopharma segment includes the Pfizer U.S. Commercial Division, and the Pfizer International Commercial Division. Its product categories include oncology, primary care and specialty care. Its oncology products include Ibrance, Xtandi, Padcev, Adcetris, Inlyta, Lorbrena, Bosulif, Tukysa, Braftovi, Mektovi, Orgovyx, Elrexfio, Tivdak and Talzenna. Its primary care products include Eliquis, Nurtec ODT/Vydura, Zavzpret, the Prevnar family, Comirnaty, Abrysvo, FSME/IMMUN-TicoVac, Nimenrix, Trumenba, and Paxlovid. Its specialty care products include Xeljanz, Enbrel (outside the United States and Canada), Inflectra, Abrilada, Cibinqo, Litfulo, Eucrisa, Velsipity, the Vyndaqel family, Genotropin, BeneFIX, Xyntha, Somavert, Ngenla, Hympavzi, Sulperazon, Zavicefta, Octagam and others.</v>
     <v>81000</v>
@@ -7536,7 +7536,7 @@
     <v>26.475000000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45974.990611157031</v>
+    <v>45975.023739328128</v>
     <v>216</v>
     <v>25.67</v>
     <v>146719694940</v>
@@ -7546,11 +7546,11 @@
     <v>15.041399999999999</v>
     <v>25.87</v>
     <v>25.805</v>
-    <v>25.73</v>
+    <v>25.734999999999999</v>
     <v>5685708000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>123056356</v>
+    <v>123070248</v>
     <v>80023246</v>
     <v>1942</v>
   </rv>
@@ -7578,8 +7578,8 @@
     <v>1.4046000000000001</v>
     <v>-0.115</v>
     <v>-2.7844999999999998E-2</v>
-    <v>-0.02</v>
-    <v>-4.9880000000000002E-3</v>
+    <v>0.03</v>
+    <v>7.4809999999999998E-3</v>
     <v>USD</v>
     <v>Transocean Ltd. is an international provider of offshore contract drilling services for oil and gas wells. The Company's primary business is to contract its drilling rigs, related equipment and work crews on a dayrate basis to drill oil and gas wells. As of February 9, 2017, it owned or had partial ownership interests in and operated 56 mobile offshore drilling units. As of February 9, 2017, its fleet consisted of 30 floaters, seven harsh environment floaters, three deepwater floaters, six midwater floaters and 10 high-specification jackups. As February 9, 2017, it also had four ultra-deepwater drillships and five high-specification jackups under construction or under contract to be constructed. Its contract drilling services operations are spread across oil and gas exploration and development areas throughout the world. The Company's drilling fleet can be characterized as floaters, including drillships and semisubmersibles, and jackups.</v>
     <v>5800</v>
@@ -7590,7 +7590,7 @@
     <v>4.2300000000000004</v>
     <v>Oil &amp; Gas Related Equipment and Services</v>
     <v>Stock</v>
-    <v>45974.983080416408</v>
+    <v>45975.019714606249</v>
     <v>219</v>
     <v>3.98</v>
     <v>4422285615</v>
@@ -7599,11 +7599,11 @@
     <v>4.13</v>
     <v>4.13</v>
     <v>4.0149999999999997</v>
-    <v>3.99</v>
+    <v>4.04</v>
     <v>1101441000</v>
     <v>RIG</v>
     <v>Transocean Ltd (XNYS:RIG)</v>
-    <v>41381063</v>
+    <v>41384329</v>
     <v>57823977</v>
     <v>2008</v>
   </rv>
@@ -7620,7 +7620,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a228w7</v>
     <v>268435456</v>
@@ -7629,10 +7629,10 @@
     <v>43.5</v>
     <v>30.32</v>
     <v>0.47270000000000001</v>
-    <v>-0.42</v>
-    <v>-1.0926E-2</v>
-    <v>0.08</v>
-    <v>2.104E-3</v>
+    <v>-0.42499999999999999</v>
+    <v>-1.1056E-2</v>
+    <v>-0.17</v>
+    <v>-4.4710000000000001E-3</v>
     <v>USD</v>
     <v>Range Resources Corporation is an independent natural gas and natural gas liquids (NGLs) producer. The Company is engaged in the exploration, development and acquisition of natural gas and oil properties in the Appalachian region of the United States. Its principal area of operations is the Marcellus Shale in Pennsylvania. Its properties consist of interests in developed and undeveloped natural gas and oil leases. It owns approximately 1,431 net producing wells in Pennsylvania. It holds a portfolio of drilling opportunities and unbooked resource potential within the Marcellus, Utica/Point Pleasant and Upper Devonian formations. Its exploration and production operations are limited to the onshore United States. It has approximately 871,000 gross (763,000 net) acres under lease. Its subsidiaries include Range Resources-Appalachia, LLC, Range Resources-Pine Mountain, LLC, Range Production Company, LLC, Range Resources-Midcontinent, LLC and Range Resources-Louisiana, Inc.</v>
     <v>565</v>
@@ -7643,21 +7643,21 @@
     <v>38.81</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45974.979166678124</v>
+    <v>45975.023650231247</v>
     <v>222</v>
     <v>37.81</v>
-    <v>9008299116</v>
+    <v>9007114437</v>
     <v>RANGE RESOURCES CORPORATION</v>
     <v>RANGE RESOURCES CORPORATION</v>
     <v>38.409999999999997</v>
-    <v>15.966100000000001</v>
+    <v>15.964</v>
     <v>38.44</v>
-    <v>38.020000000000003</v>
-    <v>38.1</v>
+    <v>38.015000000000001</v>
+    <v>37.85</v>
     <v>236935800</v>
     <v>RRC</v>
     <v>RANGE RESOURCES CORPORATION (XNYS:RRC)</v>
-    <v>3429629</v>
+    <v>3429756</v>
     <v>2969420</v>
     <v>1980</v>
   </rv>
@@ -7685,8 +7685,8 @@
     <v>2.6589</v>
     <v>-3.47</v>
     <v>-5.2760000000000001E-2</v>
-    <v>0.05</v>
-    <v>8.0259999999999999E-4</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Block, Inc. builds technology to increase access to the global economy. The Company operates through two segments: Square and Cash App. The Square includes managed payment services, software solutions, hardware, and financial services offered to sellers, excluding those that involve Cash App. The Cash App segment includes the financial tools available to individuals within the mobile Cash App, including peer-to-peer payments, bitcoin and stock investments. The Cash App also includes Cash App Card, which is linked to customer stored balances that customers can use to pay for purchases or withdraw funds from an ATM. Cash App also includes the BNPL platform. Its Afterpay business is transforming the way customers manage their spending over time. Its TIDAL business is a music platform that empowers artists to thrive as entrepreneurs. Its Bitkey business is a simple self-custody wallet built for bitcoin. Proto business is a suite of bitcoin mining products and services.</v>
     <v>11372</v>
@@ -7697,7 +7697,7 @@
     <v>65.67</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45974.988005161722</v>
+    <v>45975.0152915625</v>
     <v>225</v>
     <v>61.63</v>
     <v>37857529500</v>
@@ -7707,11 +7707,11 @@
     <v>31.325399999999998</v>
     <v>65.77</v>
     <v>62.3</v>
-    <v>62.35</v>
+    <v>62.3</v>
     <v>607665000</v>
     <v>XYZ</v>
     <v>BLOCK, INC. (XNYS:XYZ)</v>
-    <v>8561142</v>
+    <v>8566640</v>
     <v>6279708</v>
     <v>2009</v>
   </rv>
@@ -7726,9 +7726,9 @@
     <v>0</v>
     <v>TENET HEALTHCARE CORPORATION (XNYS:THC)</v>
     <v>2</v>
-    <v>3</v>
+    <v>33</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>5</v>
     <v>en-US</v>
     <v>a2475r</v>
     <v>268435456</v>
@@ -7737,10 +7737,10 @@
     <v>217.42500000000001</v>
     <v>109.82389999999999</v>
     <v>1.4519</v>
-    <v>-3.37</v>
-    <v>-1.6851000000000001E-2</v>
-    <v>0.14000000000000001</v>
-    <v>7.1190000000000001E-4</v>
+    <v>-3.33</v>
+    <v>-1.6650999999999999E-2</v>
+    <v>0.34</v>
+    <v>1.7290000000000001E-3</v>
     <v>USD</v>
     <v>Tenet Healthcare Corporation is a diversified healthcare services company. The Company's segments include Hospital Operations and Services (Hospital Operations) and Ambulatory Care. The Hospital Operations segment is comprised of its acute care and specialty hospitals, a network of employed physicians and ancillary outpatient facilities. The Company's subsidiaries operate approximately 49 hospitals serving primarily urban and suburban communities in eight states. The Hospital Operations segment also includes around 135 outpatient facilities, including urgent care centers, imaging centers, off-campus hospital emergency departments and micro hospitals. It also provides revenue cycle management and value based care services. The Ambulatory Care segment, through its USPI Holding Company, Inc. subsidiary, holds ownership interests in approximately 518 ambulatory surgery centers, and 25 surgical hospitals in 37 states. The Company operates a Global Business Center in the Philippines.</v>
     <v>74480</v>
@@ -7751,21 +7751,21 @@
     <v>200.17</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45974.989071353906</v>
+    <v>45975</v>
     <v>228</v>
     <v>195.29</v>
-    <v>17279948700</v>
+    <v>17283464100</v>
     <v>TENET HEALTHCARE CORPORATION</v>
     <v>TENET HEALTHCARE CORPORATION</v>
     <v>199.02</v>
-    <v>13.068199999999999</v>
+    <v>13.0708</v>
     <v>199.99</v>
-    <v>196.62</v>
-    <v>196.8</v>
+    <v>196.66</v>
+    <v>197</v>
     <v>87885000</v>
     <v>THC</v>
     <v>TENET HEALTHCARE CORPORATION (XNYS:THC)</v>
-    <v>516370</v>
+    <v>516371</v>
     <v>1079503</v>
     <v>1975</v>
   </rv>
@@ -7829,10 +7829,10 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="12">
-    <v>33</v>
+    <v>34</v>
     <v>iShs Digtl Sec UCITS ETF USD A (XSWX:LOCK)</v>
-    <v>34</v>
     <v>35</v>
+    <v>36</v>
     <v>Finance</v>
     <v>10</v>
     <v>en-US</v>
@@ -7876,12 +7876,12 @@
     <v>1</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>EUR/USD</v>
-    <v>37</v>
     <v>38</v>
+    <v>39</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>40</v>
     <v>en-US</v>
     <v>av932w</v>
     <v>268435456</v>
@@ -7889,18 +7889,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.1918</v>
     <v>1.0176000000000001</v>
-    <v>-4.0000000000000002E-4</v>
-    <v>-3.4389999999999996E-4</v>
+    <v>-2.0000000000000001E-4</v>
+    <v>-1.7200000000000001E-4</v>
     <v>USD</v>
     <v>EUR</v>
     <v>1.1638999999999999</v>
     <v>Currency Pair</v>
-    <v>45974.990659722222</v>
+    <v>45975.023715277777</v>
     <v>1.1624000000000001</v>
     <v>Euro/US Dollar FX Spot Rate</v>
     <v>1.1637999999999999</v>
     <v>1.1631</v>
-    <v>1.1627000000000001</v>
+    <v>1.1629</v>
     <v>EURUSD</v>
     <v>EUR/USD</v>
   </rv>
@@ -7908,12 +7908,12 @@
     <v>239</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>EUR/CHF</v>
-    <v>37</v>
+    <v>38</v>
+    <v>41</v>
+    <v>Finance</v>
     <v>40</v>
-    <v>Finance</v>
-    <v>39</v>
     <v>en-US</v>
     <v>av923m</v>
     <v>268435456</v>
@@ -7921,18 +7921,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.96609999999999996</v>
     <v>0.92</v>
-    <v>0</v>
-    <v>0</v>
+    <v>2.9999999999999997E-4</v>
+    <v>3.2530000000000005E-4</v>
     <v>CHF</v>
     <v>EUR</v>
     <v>0.92279999999999995</v>
     <v>Currency Pair</v>
-    <v>45974.990659722222</v>
+    <v>45975.023738425924</v>
     <v>0.92179999999999995</v>
     <v>Euro/Swiss Franc FX Cross Rate</v>
     <v>0.92269999999999996</v>
     <v>0.92210000000000003</v>
-    <v>0.92210000000000003</v>
+    <v>0.9224</v>
     <v>EURCHF</v>
     <v>EUR/CHF</v>
   </rv>
@@ -7940,12 +7940,12 @@
     <v>241</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>EUR/GBP</v>
-    <v>37</v>
-    <v>41</v>
+    <v>38</v>
+    <v>42</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>40</v>
     <v>en-US</v>
     <v>av92z2</v>
     <v>268435456</v>
@@ -7959,7 +7959,7 @@
     <v>EUR</v>
     <v>0.88480000000000003</v>
     <v>Currency Pair</v>
-    <v>45974.990648148145</v>
+    <v>45975.023738425924</v>
     <v>0.88160000000000005</v>
     <v>Euro/UK Pound Sterling FX Cross Rate</v>
     <v>0.88139999999999996</v>
@@ -7972,12 +7972,12 @@
     <v>243</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>EUR/AUD</v>
-    <v>37</v>
-    <v>42</v>
+    <v>38</v>
+    <v>43</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>40</v>
     <v>en-US</v>
     <v>av8sfr</v>
     <v>268435456</v>
@@ -7985,18 +7985,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.8554999999999999</v>
     <v>1.5899000000000001</v>
-    <v>-2.0000000000000001E-4</v>
-    <v>-1.1230000000000001E-4</v>
+    <v>-5.9999999999999995E-4</v>
+    <v>-3.369E-4</v>
     <v>AUD</v>
     <v>EUR</v>
     <v>1.7824</v>
     <v>Currency Pair</v>
-    <v>45974.990648148145</v>
+    <v>45975.023726851854</v>
     <v>1.7802</v>
     <v>Euro/Australian Dollar FX Cross Rate</v>
     <v>1.7811999999999999</v>
     <v>1.7811999999999999</v>
-    <v>1.7809999999999999</v>
+    <v>1.7806</v>
     <v>EURAUD</v>
     <v>EUR/AUD</v>
   </rv>
@@ -8004,12 +8004,12 @@
     <v>245</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>EUR/CAD</v>
-    <v>37</v>
-    <v>43</v>
+    <v>38</v>
+    <v>44</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>40</v>
     <v>en-US</v>
     <v>av8ttc</v>
     <v>268435456</v>
@@ -8017,18 +8017,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.6468</v>
     <v>1.4484999999999999</v>
-    <v>-5.0000000000000001E-4</v>
-    <v>-3.0640000000000002E-4</v>
+    <v>2.0000000000000001E-4</v>
+    <v>1.225E-4</v>
     <v>CAD</v>
     <v>EUR</v>
     <v>1.6335</v>
     <v>Currency Pair</v>
-    <v>45974.990659722222</v>
+    <v>45975.02380787037</v>
     <v>1.6317999999999999</v>
     <v>Euro/Canadian Dollar FX Cross Rate</v>
     <v>1.6323000000000001</v>
     <v>1.6321000000000001</v>
-    <v>1.6315999999999999</v>
+    <v>1.6323000000000001</v>
     <v>EURCAD</v>
     <v>EUR/CAD</v>
   </rv>
@@ -8036,12 +8036,12 @@
     <v>247</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>USD/JPY</v>
-    <v>37</v>
-    <v>44</v>
+    <v>38</v>
+    <v>45</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>40</v>
     <v>en-US</v>
     <v>avyomw</v>
     <v>268435456</v>
@@ -8049,18 +8049,18 @@
     <v>Powered by Refinitiv</v>
     <v>158.87</v>
     <v>139.86000000000001</v>
-    <v>7.0000000000000007E-2</v>
-    <v>4.5289999999999995E-4</v>
+    <v>0.1</v>
+    <v>6.469999999999999E-4</v>
     <v>JPY</v>
     <v>USD</v>
-    <v>154.68</v>
+    <v>154.74</v>
     <v>Currency Pair</v>
-    <v>45974.990671296298</v>
+    <v>45975.023784722223</v>
     <v>154.52000000000001</v>
     <v>US Dollar/Japanese Yen FX Spot Rate</v>
     <v>154.53</v>
     <v>154.55000000000001</v>
-    <v>154.62</v>
+    <v>154.65</v>
     <v>USDJPY</v>
     <v>USD/JPY</v>
   </rv>
@@ -8068,12 +8068,12 @@
     <v>249</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>USD/CHF</v>
-    <v>37</v>
+    <v>38</v>
+    <v>41</v>
+    <v>Finance</v>
     <v>40</v>
-    <v>Finance</v>
-    <v>39</v>
     <v>en-US</v>
     <v>avyt7w</v>
     <v>268435456</v>
@@ -8081,18 +8081,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.92</v>
     <v>0.78269999999999995</v>
-    <v>2.9999999999999997E-4</v>
-    <v>3.7839999999999998E-4</v>
+    <v>4.0000000000000002E-4</v>
+    <v>5.0450000000000007E-4</v>
     <v>CHF</v>
     <v>USD</v>
     <v>0.79349999999999998</v>
     <v>Currency Pair</v>
-    <v>45974.990659722222</v>
+    <v>45975.023738425924</v>
     <v>0.7923</v>
     <v>US Dollar/Swiss Franc FX Spot Rate</v>
     <v>0.7923</v>
     <v>0.79279999999999995</v>
-    <v>0.79310000000000003</v>
+    <v>0.79320000000000002</v>
     <v>USDCHF</v>
     <v>USD/CHF</v>
   </rv>
@@ -8100,12 +8100,12 @@
     <v>251</v>
   </rv>
   <rv s="15">
-    <v>36</v>
+    <v>37</v>
     <v>USD/GBP</v>
-    <v>37</v>
-    <v>41</v>
+    <v>38</v>
+    <v>42</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>40</v>
     <v>en-US</v>
     <v>avyu4c</v>
     <v>268435456</v>
@@ -8113,18 +8113,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.82650000000000001</v>
     <v>0.72509999999999997</v>
-    <v>2.5360000000000001E-3</v>
-    <v>3.346E-3</v>
+    <v>2.3630000000000001E-3</v>
+    <v>3.1180000000000001E-3</v>
     <v>GBP</v>
     <v>USD</v>
     <v>0.76119999999999999</v>
     <v>Currency Pair</v>
-    <v>45974.990659722222</v>
+    <v>45975.023738425924</v>
     <v>0.75760000000000005</v>
     <v>US Dollar/UK Pound Sterling FX Cross Rate</v>
     <v>0.75780000000000003</v>
     <v>0.75790000000000002</v>
-    <v>0.76049999999999995</v>
+    <v>0.76029999999999998</v>
     <v>USDGBP</v>
     <v>USD/GBP</v>
   </rv>
@@ -8136,12 +8136,12 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="16">
-    <v>45</v>
+    <v>46</v>
     <v>DOW JONES INDU AVERAGE NDX</v>
-    <v>34</v>
-    <v>46</v>
+    <v>35</v>
+    <v>47</v>
     <v>Finance</v>
-    <v>47</v>
+    <v>48</v>
     <v>en-US</v>
     <v>a6qja2</v>
     <v>268435456</v>
@@ -8171,12 +8171,12 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="12">
-    <v>33</v>
+    <v>34</v>
     <v>X NASDAQ 100 UCITS ETF 1C (XLON:XNAS)</v>
-    <v>34</v>
     <v>35</v>
+    <v>36</v>
     <v>Finance</v>
-    <v>48</v>
+    <v>49</v>
     <v>en-US</v>
     <v>bxjpp2</v>
     <v>268435456</v>
@@ -8234,8 +8234,8 @@
     <v>1.8748</v>
     <v>-17.47</v>
     <v>-1.6840999999999998E-2</v>
-    <v>-7.84</v>
-    <v>-7.6870000000000003E-3</v>
+    <v>-10.348800000000001</v>
+    <v>-1.0147E-2</v>
     <v>USD</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>43461</v>
@@ -8246,7 +8246,7 @@
     <v>1041.8599999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45974.989969814065</v>
+    <v>45975.023529385937</v>
     <v>262</v>
     <v>1009.505</v>
     <v>400840800000</v>
@@ -8256,11 +8256,11 @@
     <v>35.985399999999998</v>
     <v>1037.33</v>
     <v>1019.86</v>
-    <v>1012.02</v>
+    <v>1009.5112</v>
     <v>388147700</v>
     <v>ASML</v>
     <v>ASML Holding NV (XNAS:ASML)</v>
-    <v>1403949</v>
+    <v>1405734</v>
     <v>1495418</v>
     <v>1994</v>
   </rv>
@@ -8268,10 +8268,10 @@
     <v>263</v>
   </rv>
   <rv s="17">
-    <v>49</v>
+    <v>50</v>
     <v>Big Tree Cloud Holdings Limited (XNAS:DSY)</v>
     <v>29</v>
-    <v>50</v>
+    <v>51</v>
     <v>Finance</v>
     <v>5</v>
     <v>en-US</v>
@@ -8283,8 +8283,8 @@
     <v>0.51</v>
     <v>-4.4400000000000002E-2</v>
     <v>-0.08</v>
-    <v>3.7999999999999999E-2</v>
-    <v>7.4422000000000002E-2</v>
+    <v>1.9300000000000001E-2</v>
+    <v>3.7798999999999999E-2</v>
     <v>USD</v>
     <v>Big Tree Cloud Holdings Ltd is a China-based company principally engaged in the development, production and sales of personal care products and other consumer goods. The Company delivers products that cater to the needs of modern, health-conscious, and independent consumers. It focuses on the development and production of feminine hygiene products, including sterilized feminine pads, menstrual pants, and other feminine hygiene products. Its body and oral care products include shampoo and conditioner, body wash, facial mask and cream, and others. Its accessories include earrings, bracelets, pendants and other jewelry accessories. It distributes its products through its flagship stores on e-commerce platforms. The Company also engages in licensing business by authorizing its customers and third-party commercial stores to use its logo, trademark and brand name.</v>
     <v>20</v>
@@ -8295,7 +8295,7 @@
     <v>0.55500000000000005</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45974.969044305471</v>
+    <v>45975.002197383597</v>
     <v>0.51</v>
     <v>48526116</v>
     <v>Big Tree Cloud Holdings Limited</v>
@@ -8304,11 +8304,11 @@
     <v>0</v>
     <v>0.55500000000000005</v>
     <v>0.51060000000000005</v>
-    <v>0.54859999999999998</v>
+    <v>0.52990000000000004</v>
     <v>95037440</v>
     <v>DSY</v>
     <v>Big Tree Cloud Holdings Limited (XNAS:DSY)</v>
-    <v>87035</v>
+    <v>87399</v>
     <v>232220</v>
   </rv>
   <rv s="2">
@@ -8335,8 +8335,8 @@
     <v>1.7827999999999999</v>
     <v>-0.63</v>
     <v>-4.3688999999999999E-2</v>
-    <v>0.12</v>
-    <v>8.7080000000000005E-3</v>
+    <v>0.11020000000000001</v>
+    <v>7.9969999999999989E-3</v>
     <v>USD</v>
     <v>IAMGOLD Corporation is a Canada-based intermediate gold producer and developer. Its principal activities are the exploration, development, and operation of gold mining properties in North America and West Africa. Its projects include Essakane, Westwood and Cote Gold. The Essakane project is in north-eastern Burkina Faso, West Africa. It straddles the boundary of the Oudalan and Seno provinces in the Sahel region of Burkina Faso and is approximately 330 kilometers (km) northeast of the capital, Ouagadougou. The Westwood Project is located on the Doyon property, 2.5 km east of the former Doyon Gold Mine in Bousquet Township. The Cote Gold Project is in the Chester and Yeo Townships, District of Sudbury, in northeastern Ontario. It owns a 100% interest in the Nelligan Gold Project, located 60Km southwest of Chibougamau. It holds claims of Nelligan, as well as other earlier stage exploration properties in Northern Quebec. It also owns Rich Lake and Lac a l’Eau Jaune (gold) properties.</v>
     <v>4341</v>
@@ -8347,7 +8347,7 @@
     <v>14.66</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>45974.986359178125</v>
+    <v>45975.022189467185</v>
     <v>267</v>
     <v>13.5001</v>
     <v>11627460000</v>
@@ -8357,11 +8357,11 @@
     <v>23.270299999999999</v>
     <v>14.42</v>
     <v>13.79</v>
-    <v>13.9</v>
+    <v>13.8902</v>
     <v>575332100</v>
     <v>IAG</v>
     <v>IAMGOLD CORPORATION (XNYS:IAG)</v>
-    <v>10638075</v>
+    <v>10639273</v>
     <v>12885981</v>
     <v>2017</v>
   </rv>
@@ -8373,10 +8373,10 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="18">
-    <v>51</v>
+    <v>52</v>
     <v>Note AB (publ) (XFRA:NQA)</v>
     <v>2</v>
-    <v>52</v>
+    <v>53</v>
     <v>Finance</v>
     <v>10</v>
     <v>en-US</v>
@@ -8422,10 +8422,10 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="19">
-    <v>53</v>
+    <v>54</v>
     <v>Eni SpA (XNYS:E)</v>
     <v>2</v>
-    <v>54</v>
+    <v>55</v>
     <v>Finance</v>
     <v>5</v>
     <v>en-US</v>
@@ -8450,7 +8450,7 @@
     <v>38.33</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45974.97916668906</v>
+    <v>45975.000000022657</v>
     <v>273</v>
     <v>37.97</v>
     <v>59870020000</v>
@@ -8475,12 +8475,12 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="20">
-    <v>55</v>
+    <v>56</v>
     <v>Aura Minerals Inc. (XTSE:ORA)</v>
     <v>2</v>
-    <v>56</v>
+    <v>57</v>
     <v>Finance</v>
-    <v>57</v>
+    <v>58</v>
     <v>en-US</v>
     <v>aazgim</v>
     <v>268435456</v>
@@ -9830,7 +9830,7 @@
       <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
-  <spbData count="58">
+  <spbData count="59">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -10237,6 +10237,31 @@
       <v>Borsa Italia</v>
       <v>GMT</v>
     </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>20</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
     <spb s="0">
       <v>8</v>
       <v>Name</v>
@@ -10305,20 +10330,6 @@
       <v>9</v>
     </spb>
     <spb s="21">
-      <v>20</v>
-      <v>20</v>
-      <v>3</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>5</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>7</v>
-      <v>9</v>
-    </spb>
-    <spb s="21">
       <v>21</v>
       <v>21</v>
       <v>3</v>
@@ -10357,6 +10368,20 @@
       <v>23</v>
       <v>23</v>
       <v>23</v>
+      <v>7</v>
+      <v>9</v>
+    </spb>
+    <spb s="21">
+      <v>24</v>
+      <v>24</v>
+      <v>3</v>
+      <v>24</v>
+      <v>24</v>
+      <v>24</v>
+      <v>5</v>
+      <v>24</v>
+      <v>24</v>
+      <v>24</v>
       <v>7</v>
       <v>9</v>
     </spb>
@@ -10476,27 +10501,27 @@
       <v>LearnMoreOnLink</v>
     </spb>
     <spb s="28">
-      <v>22</v>
+      <v>23</v>
       <v>2</v>
       <v>2</v>
-      <v>22</v>
+      <v>23</v>
       <v>3</v>
-      <v>22</v>
-      <v>22</v>
-      <v>22</v>
+      <v>23</v>
+      <v>23</v>
+      <v>23</v>
       <v>4</v>
       <v>4</v>
       <v>5</v>
       <v>14</v>
-      <v>22</v>
-      <v>22</v>
-      <v>22</v>
+      <v>23</v>
+      <v>23</v>
+      <v>23</v>
       <v>4</v>
       <v>7</v>
       <v>9</v>
       <v>4</v>
-      <v>22</v>
-      <v>22</v>
+      <v>23</v>
+      <v>23</v>
       <v>5</v>
     </spb>
     <spb s="13">
@@ -10864,7 +10889,7 @@
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="8">
+  <dxfs count="9">
     <x:dxf>
       <x:numFmt numFmtId="0" formatCode="General"/>
     </x:dxf>
@@ -10888,6 +10913,9 @@
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yy"/>
     </x:dxf>
   </dxfs>
   <richProperties>
@@ -10949,6 +10977,7 @@
     <rSty dxfid="0">
       <rpv i="0" xml:space="preserve">_ [$CHF-fr-CH] * #,##0_ ;_ [$CHF-fr-CH] * -#,##0_ ;_ [$CHF-fr-CH] * "-"_ ;_ @_ </rpv>
     </rSty>
+    <rSty dxfid="8"/>
     <rSty dxfid="0">
       <rpv i="0">_([$£-en-GB]* #,##0.00_);_([$£-en-GB]* (#,##0.00);_([$£-en-GB]* "-"??_);_(@_)</rpv>
     </rSty>
@@ -10968,56 +10997,56 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A35088-1058-A848-A0D6-A830BAD4DBD7}" name="RTData" displayName="RTData" ref="A2:AF97" totalsRowCount="1" headerRowDxfId="47">
   <tableColumns count="32">
-    <tableColumn id="2" xr3:uid="{8118E0A9-5AF1-7F44-BE09-CF2D0F8A2399}" name="Ticker_Symbol" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="13">
+    <tableColumn id="2" xr3:uid="{8118E0A9-5AF1-7F44-BE09-CF2D0F8A2399}" name="Ticker_Symbol" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula array="1">_xlfn.SINGLE(RTData[suffix])&amp;_FV(RTData[[#This Row],[Company Name]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{499A2502-9862-974B-B3F4-42E9D6C812C8}" name="ExchR" dataDxfId="45" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{499A2502-9862-974B-B3F4-42E9D6C812C8}" name="ExchR" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>RTData[[#This Row],[Currency]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5A6CBBC9-8B27-C94D-8965-6BDAEC21DC67}" name="Company Name" dataDxfId="44" totalsRowDxfId="11"/>
-    <tableColumn id="53" xr3:uid="{B14728A6-B009-7546-B848-E719B03540DC}" name="Currency" dataDxfId="43" totalsRowDxfId="10">
+    <tableColumn id="3" xr3:uid="{5A6CBBC9-8B27-C94D-8965-6BDAEC21DC67}" name="Company Name" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="53" xr3:uid="{B14728A6-B009-7546-B848-E719B03540DC}" name="Currency" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Currency")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{D82CD65F-7990-6441-B746-5B546F13E893}" name="Last trade time" dataDxfId="42">
+    <tableColumn id="20" xr3:uid="{D82CD65F-7990-6441-B746-5B546F13E893}" name="Last trade time" dataDxfId="38">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{50AD8F7D-A008-1E4B-8CDC-ED5A311B2F87}" name="Close" dataDxfId="41">
+    <tableColumn id="24" xr3:uid="{50AD8F7D-A008-1E4B-8CDC-ED5A311B2F87}" name="Close" dataDxfId="37">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{5E6391A6-59FD-5740-8C73-F858AA473A29}" name="Open" dataDxfId="40">
+    <tableColumn id="41" xr3:uid="{5E6391A6-59FD-5740-8C73-F858AA473A29}" name="Open" dataDxfId="36">
       <calculatedColumnFormula array="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Open"),RTData[[#This Row],[Close]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{4E05AFBD-23DD-3143-BF73-10371B600ACA}" name="M_Price" dataDxfId="39">
+    <tableColumn id="42" xr3:uid="{4E05AFBD-23DD-3143-BF73-10371B600ACA}" name="M_Price" dataDxfId="35">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{E688C267-1B9D-F141-8056-E51CA38246AF}" name="Low" dataDxfId="38">
+    <tableColumn id="43" xr3:uid="{E688C267-1B9D-F141-8056-E51CA38246AF}" name="Low" dataDxfId="34">
       <calculatedColumnFormula array="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{F544ECB3-E642-0B49-BC8C-3FF19572390B}" name="High" dataDxfId="37" totalsRowDxfId="9">
+    <tableColumn id="44" xr3:uid="{F544ECB3-E642-0B49-BC8C-3FF19572390B}" name="High" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula array="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"High"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{719B2CAC-13BF-6E48-8695-F62AD7F1022B}" name="P/E" dataDxfId="36">
+    <tableColumn id="45" xr3:uid="{719B2CAC-13BF-6E48-8695-F62AD7F1022B}" name="P/E" dataDxfId="31">
       <calculatedColumnFormula array="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{779A9617-BAD5-A445-AFD5-37567FCA27C4}" name="Change" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="8">
+    <tableColumn id="46" xr3:uid="{779A9617-BAD5-A445-AFD5-37567FCA27C4}" name="Change" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Change")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{B66A6A9C-3452-4E40-8656-B7251B427A3F}" name="Change%" totalsRowFunction="max" dataDxfId="34" totalsRowDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="47" xr3:uid="{B66A6A9C-3452-4E40-8656-B7251B427A3F}" name="Change%" totalsRowFunction="max" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{DB75E524-1711-3047-A0FA-27F4B501D06A}" name="52_week_low" dataDxfId="33">
+    <tableColumn id="48" xr3:uid="{DB75E524-1711-3047-A0FA-27F4B501D06A}" name="52_week_low" dataDxfId="26">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{AF4DD0CC-0EAF-094F-996C-D692420E9592}" name="52_week_high" dataDxfId="32">
+    <tableColumn id="49" xr3:uid="{AF4DD0CC-0EAF-094F-996C-D692420E9592}" name="52_week_high" dataDxfId="25">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{B4995C94-74C8-AB40-AEF1-25C01418FF11}" name="Volume" totalsRowFunction="max" dataDxfId="31" totalsRowDxfId="6">
+    <tableColumn id="50" xr3:uid="{B4995C94-74C8-AB40-AEF1-25C01418FF11}" name="Volume" totalsRowFunction="max" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{D7282A85-9AD4-3A4B-B3FA-A2A6E0F8F1EF}" name="Volume average" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="5">
+    <tableColumn id="51" xr3:uid="{D7282A85-9AD4-3A4B-B3FA-A2A6E0F8F1EF}" name="Volume average" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{761404C5-AEDD-5640-8AA0-28CD8FF36D32}" name="Beta" dataDxfId="29">
+    <tableColumn id="52" xr3:uid="{761404C5-AEDD-5640-8AA0-28CD8FF36D32}" name="Beta" dataDxfId="20">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Beta")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{14879090-615A-8841-860D-257979E240A8}" name="suffix"/>
@@ -11025,31 +11054,31 @@
     <tableColumn id="6" xr3:uid="{EBBD04EA-B6AE-6C40-BE5F-086221A403AD}" name="Exchange abbreviation">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Exchange abbreviation",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{93A40EE7-10C3-5741-A94A-A706DE7AF808}" name="V/VA" dataDxfId="28" totalsRowDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{93A40EE7-10C3-5741-A94A-A706DE7AF808}" name="V/VA" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{551C9784-9D61-904F-BD9F-2415ABFADFB4}" name="Column1" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{90408EC2-90F5-784C-8E52-9D73F1A46BE0}" name="1YT" dataDxfId="26" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{551C9784-9D61-904F-BD9F-2415ABFADFB4}" name="Column1" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{90408EC2-90F5-784C-8E52-9D73F1A46BE0}" name="1YT" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(RTData[[#This Row],[Ticker_Symbol]],TickerList!$G2:$G96,TickerList!L2:L96)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{82656052-4D5E-8C41-9A70-30228A467DE8}" name="Ddate" dataDxfId="25" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{82656052-4D5E-8C41-9A70-30228A467DE8}" name="Ddate" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>_xlfn.XLOOKUP(RTData[[#This Row],[Ticker_Symbol]],TickerList!$G2:$G96,TickerList!M2:M96)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{FA897C27-6E9E-4C44-A46F-4D6AD99895C6}" name="EarningDate" dataDxfId="24" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{FA897C27-6E9E-4C44-A46F-4D6AD99895C6}" name="EarningDate" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>_xlfn.XLOOKUP(RTData[[#This Row],[Ticker_Symbol]],TickerList!$G2:$G96,TickerList!N2:N96)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4849786B-34A5-AF4F-84A7-3D73882815FC}" name="RepDiv" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{4849786B-34A5-AF4F-84A7-3D73882815FC}" name="RepDiv" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.XLOOKUP(RTData[[#This Row],[Ticker_Symbol]],TickerList!$G2:$G96,TickerList!O2:O96)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{90E79FCB-F3E0-AA4A-96E9-5A0084FC3877}" name="Broker" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{C8725869-ED97-5247-8457-FA16BCBAD72F}" name="Stamp" dataDxfId="21">
+    <tableColumn id="13" xr3:uid="{90E79FCB-F3E0-AA4A-96E9-5A0084FC3877}" name="Broker" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{C8725869-ED97-5247-8457-FA16BCBAD72F}" name="Stamp" dataDxfId="8">
       <calculatedColumnFormula array="1">_FV(RTData[[#This Row],[Company Name]],"Expense ratio",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{23E778F9-C953-6245-A7F5-663B0E49CA92}" name="Old1YT" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{566E9185-0BE5-034F-88E1-D852F05FADC9}" name="YTChange" dataDxfId="19" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{23E778F9-C953-6245-A7F5-663B0E49CA92}" name="Old1YT" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{566E9185-0BE5-034F-88E1-D852F05FADC9}" name="YTChange" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.LET(_xlpm.New1YT,RTData[[#This Row],[1YT]],        _xlpm.Old1YT,IF(ISNUMBER(RTData[[#This Row],[Old1YT]]),RTData[[#This Row],[Old1YT]],VALUE(LEFT(RTData[[#This Row],[Old1YT]],FIND("/",RTData[[#This Row],[Old1YT]],1)-1))),       IF(OR(RTData[[#This Row],[1YT]]=0,_xlpm.Old1YT=0),0,(_xlpm.New1YT-_xlpm.Old1YT)/_xlpm.Old1YT))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F7FF1844-6463-B54F-9981-0E668EE4E81B}" name="Column2" dataDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{F7FF1844-6463-B54F-9981-0E668EE4E81B}" name="Column2" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>TEXT(RTData[[#This Row],[1YT]],"#,#0.00")&amp;" &lt; "&amp;RTData[[#This Row],[Old1YT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11062,13 +11091,13 @@
   <autoFilter ref="A98:D106" xr:uid="{3605F8B5-2207-9B4F-A466-559E80FF7EC6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A71352C5-FD21-8240-941E-5FF443623FCB}" name="Couple"/>
-    <tableColumn id="2" xr3:uid="{62EEFA6A-9E09-4D45-B65F-80226F75071B}" name="RT" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{62EEFA6A-9E09-4D45-B65F-80226F75071B}" name="RT" dataDxfId="3">
       <calculatedColumnFormula array="1">_FV(A99,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7735EDB4-8F6C-2B4F-9D87-70384666EE29}" name="52 W High" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{7735EDB4-8F6C-2B4F-9D87-70384666EE29}" name="52 W High" dataDxfId="2">
       <calculatedColumnFormula array="1">_FV(A99,"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2ECF53F1-E986-1E43-881C-9B2531046487}" name="1/RT" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{2ECF53F1-E986-1E43-881C-9B2531046487}" name="1/RT" dataDxfId="1">
       <calculatedColumnFormula>1/RTExR[[#This Row],[RT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11450,7 +11479,7 @@
     <row r="1" spans="1:32" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87">
         <f ca="1">MAX(E3:E96)</f>
-        <v>45974.990659687501</v>
+        <v>45975.02379491875</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11462,7 +11491,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>45975.032539930558</v>
+        <v>45975.071191435185</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -11589,7 +11618,7 @@
       </c>
       <c r="B3" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C3" s="16" t="e" vm="1">
         <v>#VALUE!</v>
@@ -11600,7 +11629,7 @@
       </c>
       <c r="E3" s="17" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990140231253</v>
+        <v>45975.023760856253</v>
       </c>
       <c r="F3" s="18" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -11644,7 +11673,7 @@
       </c>
       <c r="P3" s="22" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>49574043</v>
+        <v>49591442</v>
       </c>
       <c r="Q3" s="22" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -11663,7 +11692,7 @@
       </c>
       <c r="V3" s="106">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.0141753456793638</v>
+        <v>1.014531290762146</v>
       </c>
       <c r="W3" s="23"/>
       <c r="X3" s="116">
@@ -11707,7 +11736,7 @@
       </c>
       <c r="B4" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C4" s="24" t="e" vm="2">
         <v>#VALUE!</v>
@@ -11941,7 +11970,7 @@
       </c>
       <c r="B6" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C6" t="e" vm="4">
         <v>#VALUE!</v>
@@ -11952,7 +11981,7 @@
       </c>
       <c r="E6" s="17" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990459432811</v>
+        <v>45975.023772568748</v>
       </c>
       <c r="F6" s="18" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -11996,7 +12025,7 @@
       </c>
       <c r="P6" s="22" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>41368010</v>
+        <v>41387017</v>
       </c>
       <c r="Q6" s="22" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12015,7 +12044,7 @@
       </c>
       <c r="V6" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.78453243325288691</v>
+        <v>0.78489289555114194</v>
       </c>
       <c r="W6" s="23"/>
       <c r="X6" s="104">
@@ -12299,7 +12328,7 @@
       </c>
       <c r="E9" s="17" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990631342189</v>
+        <v>45975.02379491875</v>
       </c>
       <c r="F9" s="18" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -12343,7 +12372,7 @@
       </c>
       <c r="P9" s="22" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>22593051</v>
+        <v>22607243</v>
       </c>
       <c r="Q9" s="22" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12361,7 +12390,7 @@
       </c>
       <c r="V9" s="103">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.0925151205144021</v>
+        <v>1.09320139235039</v>
       </c>
       <c r="W9" s="103"/>
       <c r="X9" s="104">
@@ -12413,7 +12442,7 @@
       </c>
       <c r="E10" s="17" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.987973622658</v>
+        <v>45975.019962372658</v>
       </c>
       <c r="F10" s="18" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -12457,7 +12486,7 @@
       </c>
       <c r="P10" s="22" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>4514409</v>
+        <v>4514484</v>
       </c>
       <c r="Q10" s="22" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12473,7 +12502,7 @@
       </c>
       <c r="V10" s="103">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.88703561830743238</v>
+        <v>0.88705035504736285</v>
       </c>
       <c r="W10" s="103"/>
       <c r="X10" s="104">
@@ -12515,7 +12544,7 @@
       </c>
       <c r="B11" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C11" t="e" vm="9">
         <v>#VALUE!</v>
@@ -12526,7 +12555,7 @@
       </c>
       <c r="E11" s="28" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989600450783</v>
+        <v>45975.009220925778</v>
       </c>
       <c r="F11" s="18" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -12570,7 +12599,7 @@
       </c>
       <c r="P11" s="32" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>8651261</v>
+        <v>8651290</v>
       </c>
       <c r="Q11" s="32" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12590,7 +12619,7 @@
       </c>
       <c r="V11" s="89">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.1617016865315557</v>
+        <v>1.1617055806862817</v>
       </c>
       <c r="W11" s="89"/>
       <c r="X11" s="104">
@@ -12634,7 +12663,7 @@
       </c>
       <c r="B12" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C12" t="e" vm="10">
         <v>#VALUE!</v>
@@ -12645,7 +12674,7 @@
       </c>
       <c r="E12" s="17" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.881997013283</v>
+        <v>45974.988483240624</v>
       </c>
       <c r="F12" s="18" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -12689,7 +12718,7 @@
       </c>
       <c r="P12" s="22" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>15135</v>
+        <v>15136</v>
       </c>
       <c r="Q12" s="22" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12708,7 +12737,7 @@
       </c>
       <c r="V12" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>7.5847553183492442E-2</v>
+        <v>7.5852564584429572E-2</v>
       </c>
       <c r="W12" s="23"/>
       <c r="X12" s="104">
@@ -12752,7 +12781,7 @@
       </c>
       <c r="B13" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C13" t="e" vm="11">
         <v>#VALUE!</v>
@@ -12763,7 +12792,7 @@
       </c>
       <c r="E13" s="17" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.986682476563</v>
+        <v>45975.023111330469</v>
       </c>
       <c r="F13" s="18" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -12807,7 +12836,7 @@
       </c>
       <c r="P13" s="22" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>11424024</v>
+        <v>11426539</v>
       </c>
       <c r="Q13" s="22" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12826,7 +12855,7 @@
       </c>
       <c r="V13" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.85062095422583273</v>
+        <v>0.85080821851203148</v>
       </c>
       <c r="W13" s="23"/>
       <c r="X13" s="104">
@@ -12870,7 +12899,7 @@
       </c>
       <c r="B14" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C14" t="e" vm="12">
         <v>#VALUE!</v>
@@ -12881,7 +12910,7 @@
       </c>
       <c r="E14" s="17" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989382279688</v>
+        <v>45975.02375734922</v>
       </c>
       <c r="F14" s="18" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -12925,7 +12954,7 @@
       </c>
       <c r="P14" s="22" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>57614906</v>
+        <v>57627884</v>
       </c>
       <c r="Q14" s="22" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -12944,7 +12973,7 @@
       </c>
       <c r="V14" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>3.0032905150233318</v>
+        <v>3.0039670188486434</v>
       </c>
       <c r="W14" s="23"/>
       <c r="X14" s="104">
@@ -12988,7 +13017,7 @@
       </c>
       <c r="B15" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C15" t="e" vm="13">
         <v>#VALUE!</v>
@@ -12999,7 +13028,7 @@
       </c>
       <c r="E15" s="17" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990496943748</v>
+        <v>45975.01957747656</v>
       </c>
       <c r="F15" s="18" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -13043,7 +13072,7 @@
       </c>
       <c r="P15" s="22" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>7262467</v>
+        <v>7262543</v>
       </c>
       <c r="Q15" s="22" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -13062,7 +13091,7 @@
       </c>
       <c r="V15" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.9087399470382076</v>
+        <v>0.90874945678688868</v>
       </c>
       <c r="W15" s="23"/>
       <c r="X15" s="104">
@@ -13106,7 +13135,7 @@
       </c>
       <c r="B16" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C16" t="e" vm="14">
         <v>#VALUE!</v>
@@ -13117,7 +13146,7 @@
       </c>
       <c r="E16" s="17" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.981999803123</v>
+        <v>45975.007976863279</v>
       </c>
       <c r="F16" s="18" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -13129,7 +13158,7 @@
       </c>
       <c r="H16" s="18" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="I16" s="18" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -13145,11 +13174,11 @@
       </c>
       <c r="L16" s="20" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="M16" s="21" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-6.8669999999999995E-2</v>
+        <v>-7.2960999999999998E-2</v>
       </c>
       <c r="N16" s="18" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -13161,7 +13190,7 @@
       </c>
       <c r="P16" s="22" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2467622</v>
+        <v>2467906</v>
       </c>
       <c r="Q16" s="22" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -13180,7 +13209,7 @@
       </c>
       <c r="V16" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.60112594397076735</v>
+        <v>0.6011951278928136</v>
       </c>
       <c r="W16" s="23"/>
       <c r="X16" s="104">
@@ -13224,7 +13253,7 @@
       </c>
       <c r="B17" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C17" t="e" vm="15">
         <v>#VALUE!</v>
@@ -13235,7 +13264,7 @@
       </c>
       <c r="E17" s="17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990259178128</v>
+        <v>45975.02375791641</v>
       </c>
       <c r="F17" s="18" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -13279,7 +13308,7 @@
       </c>
       <c r="P17" s="22" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>44030908</v>
+        <v>44037651</v>
       </c>
       <c r="Q17" s="22" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -13298,7 +13327,7 @@
       </c>
       <c r="V17" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>5.3571740303477711</v>
+        <v>5.3579944409667535</v>
       </c>
       <c r="W17" s="23"/>
       <c r="X17" s="104">
@@ -13342,7 +13371,7 @@
       </c>
       <c r="B18" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C18" t="e" vm="16">
         <v>#VALUE!</v>
@@ -13470,7 +13499,7 @@
       </c>
       <c r="E19" s="17" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.97916668906</v>
+        <v>45975.021511296094</v>
       </c>
       <c r="F19" s="27" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -13482,7 +13511,7 @@
       </c>
       <c r="H19" s="27" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>123.05</v>
+        <v>123.06</v>
       </c>
       <c r="I19" s="27" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -13494,15 +13523,15 @@
       </c>
       <c r="K19" s="19" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>12.6691</v>
+        <v>12.6701</v>
       </c>
       <c r="L19" s="20" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.55000000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="M19" s="21" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-4.45E-3</v>
+        <v>-4.3690000000000005E-3</v>
       </c>
       <c r="N19" s="27" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -13514,7 +13543,7 @@
       </c>
       <c r="P19" s="22" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>728882</v>
+        <v>728985</v>
       </c>
       <c r="Q19" s="22" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -13533,7 +13562,7 @@
       </c>
       <c r="V19" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.82941733387347116</v>
+        <v>0.82953454075385646</v>
       </c>
       <c r="W19" s="23"/>
       <c r="X19" s="104">
@@ -13575,7 +13604,7 @@
       </c>
       <c r="B20" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C20" t="e" vm="18">
         <v>#VALUE!</v>
@@ -13586,7 +13615,7 @@
       </c>
       <c r="E20" s="17" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.97916668906</v>
+        <v>45975.009976203124</v>
       </c>
       <c r="F20" s="18" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -13630,7 +13659,7 @@
       </c>
       <c r="P20" s="22" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2129659</v>
+        <v>2129705</v>
       </c>
       <c r="Q20" s="22" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -13649,7 +13678,7 @@
       </c>
       <c r="V20" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.0835488906346034</v>
+        <v>1.0835722949678648</v>
       </c>
       <c r="W20" s="23"/>
       <c r="X20" s="104">
@@ -13693,7 +13722,7 @@
       </c>
       <c r="B21" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C21" t="e" vm="19">
         <v>#VALUE!</v>
@@ -13926,7 +13955,7 @@
       </c>
       <c r="B23" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C23" t="e" vm="21">
         <v>#VALUE!</v>
@@ -13937,7 +13966,7 @@
       </c>
       <c r="E23" s="17" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.98679762656</v>
+        <v>45975.022687372657</v>
       </c>
       <c r="F23" s="18" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -13981,7 +14010,7 @@
       </c>
       <c r="P23" s="22" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>9003153</v>
+        <v>9003443</v>
       </c>
       <c r="Q23" s="22" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14000,7 +14029,7 @@
       </c>
       <c r="V23" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.87677187101086773</v>
+        <v>0.8768001126549444</v>
       </c>
       <c r="W23" s="23"/>
       <c r="X23" s="104">
@@ -14044,7 +14073,7 @@
       </c>
       <c r="B24" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C24" t="e" vm="22">
         <v>#VALUE!</v>
@@ -14055,7 +14084,7 @@
       </c>
       <c r="E24" s="17" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989948251561</v>
+        <v>45975.011304791406</v>
       </c>
       <c r="F24" s="18" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -14067,7 +14096,7 @@
       </c>
       <c r="H24" s="18" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>22.92</v>
+        <v>22.93</v>
       </c>
       <c r="I24" s="18" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -14079,15 +14108,15 @@
       </c>
       <c r="K24" s="19" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>27.491900000000001</v>
+        <v>27.503900000000002</v>
       </c>
       <c r="L24" s="20" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="M24" s="21" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-2.3849999999999996E-2</v>
+        <v>-2.3424E-2</v>
       </c>
       <c r="N24" s="18" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -14099,7 +14128,7 @@
       </c>
       <c r="P24" s="22" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>42096941</v>
+        <v>42098212</v>
       </c>
       <c r="Q24" s="22" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14118,7 +14147,7 @@
       </c>
       <c r="V24" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.0720833902096649</v>
+        <v>1.0721157587845918</v>
       </c>
       <c r="W24" s="23"/>
       <c r="X24" s="104">
@@ -14162,7 +14191,7 @@
       </c>
       <c r="B25" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C25" t="e" vm="23">
         <v>#VALUE!</v>
@@ -14173,7 +14202,7 @@
       </c>
       <c r="E25" s="17" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.979166700781</v>
+        <v>45975.01510943281</v>
       </c>
       <c r="F25" s="18" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -14185,7 +14214,7 @@
       </c>
       <c r="H25" s="18" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>24.98</v>
+        <v>24.984999999999999</v>
       </c>
       <c r="I25" s="18" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -14197,15 +14226,15 @@
       </c>
       <c r="K25" s="19" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>9.0998999999999999</v>
+        <v>9.1016999999999992</v>
       </c>
       <c r="L25" s="20" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.23</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M25" s="21" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-9.1229999999999992E-3</v>
+        <v>-8.9249999999999989E-3</v>
       </c>
       <c r="N25" s="18" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -14217,7 +14246,7 @@
       </c>
       <c r="P25" s="22" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>12224001</v>
+        <v>12224084</v>
       </c>
       <c r="Q25" s="22" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14236,7 +14265,7 @@
       </c>
       <c r="V25" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.0060978214411906</v>
+        <v>1.0061046527658264</v>
       </c>
       <c r="W25" s="23"/>
       <c r="X25" s="104">
@@ -14280,7 +14309,7 @@
       </c>
       <c r="B26" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C26" t="e" vm="24">
         <v>#VALUE!</v>
@@ -14409,7 +14438,7 @@
       </c>
       <c r="E27" s="17" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.985415775001</v>
+        <v>45975.023361075779</v>
       </c>
       <c r="F27" s="25" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -14453,7 +14482,7 @@
       </c>
       <c r="P27" s="22" cm="1">
         <f t="array" aca="1" ref="P27" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>5226861</v>
+        <v>5226931</v>
       </c>
       <c r="Q27" s="22" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14472,7 +14501,7 @@
       </c>
       <c r="V27" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.86709186872805666</v>
+        <v>0.86710348113382207</v>
       </c>
       <c r="W27" s="23"/>
       <c r="X27" s="104">
@@ -14514,7 +14543,7 @@
       </c>
       <c r="B28" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C28" t="e" vm="26">
         <v>#VALUE!</v>
@@ -14632,7 +14661,7 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C29" t="e" vm="27">
         <v>#VALUE!</v>
@@ -14643,7 +14672,7 @@
       </c>
       <c r="E29" s="17" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.988139015622</v>
+        <v>45975.023072661716</v>
       </c>
       <c r="F29" s="18" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -14687,7 +14716,7 @@
       </c>
       <c r="P29" s="22" cm="1">
         <f t="array" aca="1" ref="P29" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>22360518</v>
+        <v>22364410</v>
       </c>
       <c r="Q29" s="22" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14706,7 +14735,7 @@
       </c>
       <c r="V29" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.94018671524241559</v>
+        <v>0.94035036112466763</v>
       </c>
       <c r="W29" s="23"/>
       <c r="X29" s="104">
@@ -14750,7 +14779,7 @@
       </c>
       <c r="B30" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C30" t="e" vm="28">
         <v>#VALUE!</v>
@@ -14761,7 +14790,7 @@
       </c>
       <c r="E30" s="17" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989718957811</v>
+        <v>45975.023188668747</v>
       </c>
       <c r="F30" s="18" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -14805,7 +14834,7 @@
       </c>
       <c r="P30" s="22" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>10683011</v>
+        <v>10685609</v>
       </c>
       <c r="Q30" s="22" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14824,7 +14853,7 @@
       </c>
       <c r="V30" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.93683569621824991</v>
+        <v>0.93706352516448754</v>
       </c>
       <c r="W30" s="23"/>
       <c r="X30" s="104">
@@ -14868,7 +14897,7 @@
       </c>
       <c r="B31" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C31" t="e" vm="29">
         <v>#VALUE!</v>
@@ -14879,7 +14908,7 @@
       </c>
       <c r="E31" s="17" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.99055479141</v>
+        <v>45975.023629409377</v>
       </c>
       <c r="F31" s="18" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -14923,7 +14952,7 @@
       </c>
       <c r="P31" s="22" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>25259620</v>
+        <v>25267000</v>
       </c>
       <c r="Q31" s="22" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -14942,7 +14971,7 @@
       </c>
       <c r="V31" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.151193964699651</v>
+        <v>1.1515303043381524</v>
       </c>
       <c r="W31" s="23"/>
       <c r="X31" s="104">
@@ -14986,7 +15015,7 @@
       </c>
       <c r="B32" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C32" t="e" vm="30">
         <v>#VALUE!</v>
@@ -14997,7 +15026,7 @@
       </c>
       <c r="E32" s="17" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.99033532344</v>
+        <v>45975.020733135934</v>
       </c>
       <c r="F32" s="18" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15021,7 +15050,7 @@
       </c>
       <c r="K32" s="19" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>26.6753</v>
+        <v>27.278400000000001</v>
       </c>
       <c r="L32" s="20" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
@@ -15041,7 +15070,7 @@
       </c>
       <c r="P32" s="22" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>11858546</v>
+        <v>11858890</v>
       </c>
       <c r="Q32" s="22" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15060,7 +15089,7 @@
       </c>
       <c r="V32" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.3141537192062736</v>
+        <v>1.3141918409860776</v>
       </c>
       <c r="W32" s="23"/>
       <c r="X32" s="104">
@@ -15104,7 +15133,7 @@
       </c>
       <c r="B33" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C33" t="e" vm="31">
         <v>#VALUE!</v>
@@ -15115,7 +15144,7 @@
       </c>
       <c r="E33" s="17" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.988545092187</v>
+        <v>45975.013890601564</v>
       </c>
       <c r="F33" s="18" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15159,7 +15188,7 @@
       </c>
       <c r="P33" s="22" cm="1">
         <f t="array" aca="1" ref="P33" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>9707799</v>
+        <v>9709024</v>
       </c>
       <c r="Q33" s="22" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15178,7 +15207,7 @@
       </c>
       <c r="V33" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.80144618294684022</v>
+        <v>0.80154731519876576</v>
       </c>
       <c r="W33" s="23"/>
       <c r="X33" s="104">
@@ -15222,7 +15251,7 @@
       </c>
       <c r="B34" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C34" t="e" vm="32">
         <v>#VALUE!</v>
@@ -15233,7 +15262,7 @@
       </c>
       <c r="E34" s="17" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990449941404</v>
+        <v>45975.023772685156</v>
       </c>
       <c r="F34" s="18" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15277,7 +15306,7 @@
       </c>
       <c r="P34" s="22" cm="1">
         <f t="array" aca="1" ref="P34" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>4010451</v>
+        <v>4012762</v>
       </c>
       <c r="Q34" s="22" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15296,7 +15325,7 @@
       </c>
       <c r="V34" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.88879598087774359</v>
+        <v>0.88930814459993057</v>
       </c>
       <c r="W34" s="23"/>
       <c r="X34" s="104">
@@ -15340,7 +15369,7 @@
       </c>
       <c r="B35" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C35" t="e" vm="33">
         <v>#VALUE!</v>
@@ -15351,7 +15380,7 @@
       </c>
       <c r="E35" s="17" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.97916668906</v>
+        <v>45975.020815138283</v>
       </c>
       <c r="F35" s="18" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15363,7 +15392,7 @@
       </c>
       <c r="H35" s="18" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>2.5299999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="I35" s="18" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -15379,11 +15408,11 @@
       </c>
       <c r="L35" s="20" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="M35" s="21" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-6.9852999999999998E-2</v>
+        <v>-7.3528999999999997E-2</v>
       </c>
       <c r="N35" s="18" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -15395,7 +15424,7 @@
       </c>
       <c r="P35" s="22" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>280315</v>
+        <v>280827</v>
       </c>
       <c r="Q35" s="22" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15414,7 +15443,7 @@
       </c>
       <c r="V35" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.1386587050125925</v>
+        <v>1.1407384840360713</v>
       </c>
       <c r="W35" s="23"/>
       <c r="X35" s="104">
@@ -15458,7 +15487,7 @@
       </c>
       <c r="B36" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C36" t="e" vm="34">
         <v>#VALUE!</v>
@@ -15469,7 +15498,7 @@
       </c>
       <c r="E36" s="17" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.988143390627</v>
+        <v>45975.022784664063</v>
       </c>
       <c r="F36" s="18" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15513,7 +15542,7 @@
       </c>
       <c r="P36" s="22" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>9530626</v>
+        <v>9544035</v>
       </c>
       <c r="Q36" s="22" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15532,7 +15561,7 @@
       </c>
       <c r="V36" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.527198287983758</v>
+        <v>1.5293469613073754</v>
       </c>
       <c r="W36" s="23"/>
       <c r="X36" s="104">
@@ -15576,7 +15605,7 @@
       </c>
       <c r="B37" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C37" t="e" vm="35">
         <v>#VALUE!</v>
@@ -15587,7 +15616,7 @@
       </c>
       <c r="E37" s="17" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.92777857578</v>
+        <v>45975.010698599217</v>
       </c>
       <c r="F37" s="18" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15631,7 +15660,7 @@
       </c>
       <c r="P37" s="22" cm="1">
         <f t="array" aca="1" ref="P37" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>84532</v>
+        <v>84862</v>
       </c>
       <c r="Q37" s="22" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15650,7 +15679,7 @@
       </c>
       <c r="V37" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.3516253337810396</v>
+        <v>1.3569018723717241</v>
       </c>
       <c r="W37" s="23"/>
       <c r="X37" s="104">
@@ -15694,7 +15723,7 @@
       </c>
       <c r="B38" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C38" t="e" vm="36">
         <v>#VALUE!</v>
@@ -15705,7 +15734,7 @@
       </c>
       <c r="E38" s="17" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990589721878</v>
+        <v>45975.02365711797</v>
       </c>
       <c r="F38" s="18" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15749,7 +15778,7 @@
       </c>
       <c r="P38" s="22" cm="1">
         <f t="array" aca="1" ref="P38" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>9715484</v>
+        <v>9815988</v>
       </c>
       <c r="Q38" s="22" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15768,7 +15797,7 @@
       </c>
       <c r="V38" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.63029632572091376</v>
+        <v>0.63681656721585678</v>
       </c>
       <c r="W38" s="23"/>
       <c r="X38" s="104">
@@ -15812,7 +15841,7 @@
       </c>
       <c r="B39" s="15">
         <f ca="1">D103</f>
-        <v>0.61289531747977444</v>
+        <v>0.61263248177418361</v>
       </c>
       <c r="C39" t="e" vm="37">
         <v>#VALUE!</v>
@@ -15823,7 +15852,7 @@
       </c>
       <c r="E39" s="17" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.979166678124</v>
+        <v>45975.022505960158</v>
       </c>
       <c r="F39" s="34" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15835,7 +15864,7 @@
       </c>
       <c r="H39" s="34" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>0.61990000000000001</v>
+        <v>0.6048</v>
       </c>
       <c r="I39" s="34" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -15851,11 +15880,11 @@
       </c>
       <c r="L39" s="20" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-1E-4</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="M39" s="21" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-1.6129999999999999E-4</v>
+        <v>-2.4516E-2</v>
       </c>
       <c r="N39" s="34" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -15867,7 +15896,7 @@
       </c>
       <c r="P39" s="22" cm="1">
         <f t="array" aca="1" ref="P39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>26036</v>
+        <v>26051</v>
       </c>
       <c r="Q39" s="22" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -15886,7 +15915,7 @@
       </c>
       <c r="V39" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.29577960806589038</v>
+        <v>0.2959500142005112</v>
       </c>
       <c r="W39" s="23"/>
       <c r="X39" s="104">
@@ -15930,7 +15959,7 @@
       </c>
       <c r="B40" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C40" t="e" vm="38">
         <v>#VALUE!</v>
@@ -15941,7 +15970,7 @@
       </c>
       <c r="E40" s="17" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.963213240626</v>
+        <v>45975.016803448438</v>
       </c>
       <c r="F40" s="18" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -15985,7 +16014,7 @@
       </c>
       <c r="P40" s="22" cm="1">
         <f t="array" aca="1" ref="P40" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>456959</v>
+        <v>457083</v>
       </c>
       <c r="Q40" s="22" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -16004,7 +16033,7 @@
       </c>
       <c r="V40" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.76132298818593946</v>
+        <v>0.76152958013518446</v>
       </c>
       <c r="W40" s="23"/>
       <c r="X40" s="104">
@@ -16048,7 +16077,7 @@
       </c>
       <c r="B41" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C41" t="e" vm="39">
         <v>#VALUE!</v>
@@ -16396,7 +16425,7 @@
       </c>
       <c r="B44" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C44" t="e" vm="42">
         <v>#VALUE!</v>
@@ -16407,7 +16436,7 @@
       </c>
       <c r="E44" s="17" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.985895810154</v>
+        <v>45975.015917488279</v>
       </c>
       <c r="F44" s="18" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -16451,7 +16480,7 @@
       </c>
       <c r="P44" s="22" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>1394911</v>
+        <v>1395006</v>
       </c>
       <c r="Q44" s="22" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -16470,7 +16499,7 @@
       </c>
       <c r="V44" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.4606841464295774</v>
+        <v>1.4607836258902103</v>
       </c>
       <c r="W44" s="23"/>
       <c r="X44" s="104">
@@ -16514,7 +16543,7 @@
       </c>
       <c r="B45" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C45" t="e" vm="43">
         <v>#VALUE!</v>
@@ -16525,7 +16554,7 @@
       </c>
       <c r="E45" s="17" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990659687501</v>
+        <v>45975.023773541405</v>
       </c>
       <c r="F45" s="18" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -16569,7 +16598,7 @@
       </c>
       <c r="P45" s="22" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>118627487</v>
+        <v>118815564</v>
       </c>
       <c r="Q45" s="22" cm="1">
         <f t="array" aca="1" ref="Q45" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -16588,7 +16617,7 @@
       </c>
       <c r="V45" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.4316310489759856</v>
+        <v>1.4339008169665883</v>
       </c>
       <c r="W45" s="23"/>
       <c r="X45" s="104">
@@ -16633,7 +16662,7 @@
       </c>
       <c r="B46" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C46" t="e" vm="44">
         <v>#VALUE!</v>
@@ -16644,7 +16673,7 @@
       </c>
       <c r="E46" s="17" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990427476565</v>
+        <v>45975.023757187497</v>
       </c>
       <c r="F46" s="18" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -16688,7 +16717,7 @@
       </c>
       <c r="P46" s="22" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>13814035</v>
+        <v>13824788</v>
       </c>
       <c r="Q46" s="22" cm="1">
         <f t="array" aca="1" ref="Q46" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -16707,7 +16736,7 @@
       </c>
       <c r="V46" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.95964466144650196</v>
+        <v>0.96039165962947559</v>
       </c>
       <c r="W46" s="23"/>
       <c r="X46" s="104">
@@ -16751,7 +16780,7 @@
       </c>
       <c r="B47" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C47" t="e" vm="45">
         <v>#VALUE!</v>
@@ -16879,7 +16908,7 @@
       </c>
       <c r="E48" s="17" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.977961666409</v>
+        <v>45974.999617881251</v>
       </c>
       <c r="F48" s="27" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -16923,7 +16952,7 @@
       </c>
       <c r="P48" s="22" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>1989693</v>
+        <v>1989893</v>
       </c>
       <c r="Q48" s="22" cm="1">
         <f t="array" aca="1" ref="Q48" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -16942,7 +16971,7 @@
       </c>
       <c r="V48" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.72474361426034695</v>
+        <v>0.72481646405318034</v>
       </c>
       <c r="W48" s="23"/>
       <c r="X48" s="104">
@@ -16984,7 +17013,7 @@
       </c>
       <c r="B49" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C49" t="e" vm="47">
         <v>#VALUE!</v>
@@ -17102,7 +17131,7 @@
       </c>
       <c r="B50" s="15">
         <f ca="1">D100</f>
-        <v>1.0844810758052272</v>
+        <v>1.0841283607979184</v>
       </c>
       <c r="C50" t="e" vm="48">
         <v>#VALUE!</v>
@@ -17218,7 +17247,7 @@
       </c>
       <c r="B51" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C51" t="e" vm="49">
         <v>#VALUE!</v>
@@ -17229,7 +17258,7 @@
       </c>
       <c r="E51" s="17" cm="1">
         <f t="array" aca="1" ref="E51" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989032858597</v>
+        <v>45975.012279582814</v>
       </c>
       <c r="F51" s="18" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -17273,7 +17302,7 @@
       </c>
       <c r="P51" s="22" cm="1">
         <f t="array" aca="1" ref="P51" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>7382764</v>
+        <v>7382767</v>
       </c>
       <c r="Q51" s="22" cm="1">
         <f t="array" aca="1" ref="Q51" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -17292,7 +17321,7 @@
       </c>
       <c r="V51" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.82951910511094706</v>
+        <v>0.82951944218759144</v>
       </c>
       <c r="W51" s="23"/>
       <c r="X51" s="104">
@@ -17336,7 +17365,7 @@
       </c>
       <c r="B52" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C52" t="e" vm="50">
         <v>#VALUE!</v>
@@ -17454,7 +17483,7 @@
       </c>
       <c r="B53" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C53" t="e" vm="51">
         <v>#VALUE!</v>
@@ -17465,7 +17494,7 @@
       </c>
       <c r="E53" s="17" cm="1">
         <f t="array" aca="1" ref="E53" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990174224222</v>
+        <v>45975.023629050782</v>
       </c>
       <c r="F53" s="18" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -17509,7 +17538,7 @@
       </c>
       <c r="P53" s="22" cm="1">
         <f t="array" aca="1" ref="P53" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>17285367</v>
+        <v>17287546</v>
       </c>
       <c r="Q53" s="22" cm="1">
         <f t="array" aca="1" ref="Q53" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -17528,7 +17557,7 @@
       </c>
       <c r="V53" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.3272011568863578</v>
+        <v>1.3273684643737171</v>
       </c>
       <c r="W53" s="23"/>
       <c r="X53" s="104">
@@ -17572,7 +17601,7 @@
       </c>
       <c r="B54" s="15">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C54" t="e" vm="52">
         <v>#VALUE!</v>
@@ -17583,7 +17612,7 @@
       </c>
       <c r="E54" s="17" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.979166678124</v>
+        <v>45975.000000010936</v>
       </c>
       <c r="F54" s="18" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -17810,7 +17839,7 @@
       </c>
       <c r="B56" s="112">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C56" t="e" vm="14">
         <v>#VALUE!</v>
@@ -17821,7 +17850,7 @@
       </c>
       <c r="E56" s="58" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.981999803123</v>
+        <v>45975.007976863279</v>
       </c>
       <c r="F56" s="57" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -17833,7 +17862,7 @@
       </c>
       <c r="H56" s="57" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="I56" s="57" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -17849,11 +17878,11 @@
       </c>
       <c r="L56" s="60" cm="1">
         <f t="array" aca="1" ref="L56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="M56" s="61" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-6.8669999999999995E-2</v>
+        <v>-7.2960999999999998E-2</v>
       </c>
       <c r="N56" s="57" cm="1">
         <f t="array" aca="1" ref="N56" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -17865,7 +17894,7 @@
       </c>
       <c r="P56" s="62" cm="1">
         <f t="array" aca="1" ref="P56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2467622</v>
+        <v>2467906</v>
       </c>
       <c r="Q56" s="62" cm="1">
         <f t="array" aca="1" ref="Q56" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -17887,7 +17916,7 @@
       </c>
       <c r="V56" s="90">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.60112594397076735</v>
+        <v>0.6011951278928136</v>
       </c>
       <c r="W56" s="90"/>
       <c r="X56" s="104">
@@ -18296,7 +18325,7 @@
       </c>
       <c r="B60" s="112">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C60" t="e" vm="20">
         <v>#VALUE!</v>
@@ -19021,7 +19050,7 @@
       </c>
       <c r="B66" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C66" t="e" vm="1">
         <v>#VALUE!</v>
@@ -19032,7 +19061,7 @@
       </c>
       <c r="E66" s="17" cm="1">
         <f t="array" aca="1" ref="E66" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990140231253</v>
+        <v>45975.023760856253</v>
       </c>
       <c r="F66" s="18" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -19076,7 +19105,7 @@
       </c>
       <c r="P66" s="22" cm="1">
         <f t="array" aca="1" ref="P66" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>49574043</v>
+        <v>49591442</v>
       </c>
       <c r="Q66" s="22" cm="1">
         <f t="array" aca="1" ref="Q66" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -19098,7 +19127,7 @@
       </c>
       <c r="V66" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.0141753456793638</v>
+        <v>1.014531290762146</v>
       </c>
       <c r="W66" s="23"/>
       <c r="X66" s="104">
@@ -19142,7 +19171,7 @@
       </c>
       <c r="B67" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C67" t="e" vm="4">
         <v>#VALUE!</v>
@@ -19153,7 +19182,7 @@
       </c>
       <c r="E67" s="17" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990459432811</v>
+        <v>45975.023772568748</v>
       </c>
       <c r="F67" s="18" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -19197,7 +19226,7 @@
       </c>
       <c r="P67" s="22" cm="1">
         <f t="array" aca="1" ref="P67" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>41368010</v>
+        <v>41387017</v>
       </c>
       <c r="Q67" s="22" cm="1">
         <f t="array" aca="1" ref="Q67" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -19219,7 +19248,7 @@
       </c>
       <c r="V67" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.78453243325288691</v>
+        <v>0.78489289555114194</v>
       </c>
       <c r="W67" s="23"/>
       <c r="X67" s="104">
@@ -19384,7 +19413,7 @@
       </c>
       <c r="B69" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C69" t="e" vm="14">
         <v>#VALUE!</v>
@@ -19395,7 +19424,7 @@
       </c>
       <c r="E69" s="17" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.981999803123</v>
+        <v>45975.007976863279</v>
       </c>
       <c r="F69" s="18" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -19407,7 +19436,7 @@
       </c>
       <c r="H69" s="18" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="I69" s="18" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -19423,11 +19452,11 @@
       </c>
       <c r="L69" s="20" cm="1">
         <f t="array" aca="1" ref="L69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="M69" s="21" cm="1">
         <f t="array" aca="1" ref="M69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-6.8669999999999995E-2</v>
+        <v>-7.2960999999999998E-2</v>
       </c>
       <c r="N69" s="18" cm="1">
         <f t="array" aca="1" ref="N69" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -19439,7 +19468,7 @@
       </c>
       <c r="P69" s="22" cm="1">
         <f t="array" aca="1" ref="P69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2467622</v>
+        <v>2467906</v>
       </c>
       <c r="Q69" s="22" cm="1">
         <f t="array" aca="1" ref="Q69" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -19461,7 +19490,7 @@
       </c>
       <c r="V69" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.60112594397076735</v>
+        <v>0.6011951278928136</v>
       </c>
       <c r="W69" s="23"/>
       <c r="X69" s="104">
@@ -19505,7 +19534,7 @@
       </c>
       <c r="B70" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C70" t="e" vm="15">
         <v>#VALUE!</v>
@@ -19516,7 +19545,7 @@
       </c>
       <c r="E70" s="17" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990259178128</v>
+        <v>45975.02375791641</v>
       </c>
       <c r="F70" s="18" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -19560,7 +19589,7 @@
       </c>
       <c r="P70" s="22" cm="1">
         <f t="array" aca="1" ref="P70" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>44030908</v>
+        <v>44037651</v>
       </c>
       <c r="Q70" s="22" cm="1">
         <f t="array" aca="1" ref="Q70" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -19582,7 +19611,7 @@
       </c>
       <c r="V70" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>5.3571740303477711</v>
+        <v>5.3579944409667535</v>
       </c>
       <c r="W70" s="23"/>
       <c r="X70" s="104">
@@ -19626,7 +19655,7 @@
       </c>
       <c r="B71" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C71" t="e" vm="21">
         <v>#VALUE!</v>
@@ -19637,7 +19666,7 @@
       </c>
       <c r="E71" s="17" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.98679762656</v>
+        <v>45975.022687372657</v>
       </c>
       <c r="F71" s="18" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -19681,7 +19710,7 @@
       </c>
       <c r="P71" s="22" cm="1">
         <f t="array" aca="1" ref="P71" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>9003153</v>
+        <v>9003443</v>
       </c>
       <c r="Q71" s="22" cm="1">
         <f t="array" aca="1" ref="Q71" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -19703,7 +19732,7 @@
       </c>
       <c r="V71" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.87677187101086773</v>
+        <v>0.8768001126549444</v>
       </c>
       <c r="W71" s="23"/>
       <c r="X71" s="104">
@@ -19868,7 +19897,7 @@
       </c>
       <c r="B73" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C73" t="e" vm="28">
         <v>#VALUE!</v>
@@ -19879,7 +19908,7 @@
       </c>
       <c r="E73" s="17" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989718957811</v>
+        <v>45975.023188668747</v>
       </c>
       <c r="F73" s="18" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -19923,7 +19952,7 @@
       </c>
       <c r="P73" s="22" cm="1">
         <f t="array" aca="1" ref="P73" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>10683011</v>
+        <v>10685609</v>
       </c>
       <c r="Q73" s="22" cm="1">
         <f t="array" aca="1" ref="Q73" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -19945,7 +19974,7 @@
       </c>
       <c r="V73" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.93683569621824991</v>
+        <v>0.93706352516448754</v>
       </c>
       <c r="W73" s="23"/>
       <c r="X73" s="104">
@@ -19989,7 +20018,7 @@
       </c>
       <c r="B74" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C74" t="e" vm="56">
         <v>#VALUE!</v>
@@ -20000,7 +20029,7 @@
       </c>
       <c r="E74" s="17" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989903020316</v>
+        <v>45975.011156596876</v>
       </c>
       <c r="F74" s="18" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -20044,7 +20073,7 @@
       </c>
       <c r="P74" s="22" cm="1">
         <f t="array" aca="1" ref="P74" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2161907</v>
+        <v>2163023</v>
       </c>
       <c r="Q74" s="22" cm="1">
         <f t="array" aca="1" ref="Q74" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -20063,7 +20092,7 @@
       </c>
       <c r="V74" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.56080451153174704</v>
+        <v>0.56109400494421546</v>
       </c>
       <c r="W74" s="23"/>
       <c r="X74" s="104">
@@ -20338,7 +20367,7 @@
       </c>
       <c r="B77" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C77" t="e" vm="58">
         <v>#VALUE!</v>
@@ -20349,7 +20378,7 @@
       </c>
       <c r="E77" s="17" cm="1">
         <f t="array" aca="1" ref="E77" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990480173437</v>
+        <v>45975.023768529689</v>
       </c>
       <c r="F77" s="18" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -20393,7 +20422,7 @@
       </c>
       <c r="P77" s="22" cm="1">
         <f t="array" aca="1" ref="P77" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>71470464</v>
+        <v>71477636</v>
       </c>
       <c r="Q77" s="22" cm="1">
         <f t="array" aca="1" ref="Q77" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -20412,7 +20441,7 @@
       </c>
       <c r="V77" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.5410889385452935</v>
+        <v>0.541143236357985</v>
       </c>
       <c r="W77" s="23"/>
       <c r="X77" s="104">
@@ -20571,7 +20600,7 @@
       </c>
       <c r="B79" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C79" t="e" vm="59">
         <v>#VALUE!</v>
@@ -20582,7 +20611,7 @@
       </c>
       <c r="E79" s="17" cm="1">
         <f t="array" aca="1" ref="E79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.97916668906</v>
+        <v>45975.018793032032</v>
       </c>
       <c r="F79" s="18" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -20594,7 +20623,7 @@
       </c>
       <c r="H79" s="18" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>154.63</v>
+        <v>154.66</v>
       </c>
       <c r="I79" s="18" cm="1">
         <f t="array" aca="1" ref="I79" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -20606,15 +20635,15 @@
       </c>
       <c r="K79" s="19" cm="1">
         <f t="array" aca="1" ref="K79" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>29.423100000000002</v>
+        <v>29.428799999999999</v>
       </c>
       <c r="L79" s="20" cm="1">
         <f t="array" aca="1" ref="L79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-7.79</v>
+        <v>-7.76</v>
       </c>
       <c r="M79" s="21" cm="1">
         <f t="array" aca="1" ref="M79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-4.7961999999999998E-2</v>
+        <v>-4.7777E-2</v>
       </c>
       <c r="N79" s="18" cm="1">
         <f t="array" aca="1" ref="N79" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -20626,7 +20655,7 @@
       </c>
       <c r="P79" s="22" cm="1">
         <f t="array" aca="1" ref="P79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>1328009</v>
+        <v>1328073</v>
       </c>
       <c r="Q79" s="22" cm="1">
         <f t="array" aca="1" ref="Q79" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -20645,7 +20674,7 @@
       </c>
       <c r="V79" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.96711890821171609</v>
+        <v>0.96716551603600454</v>
       </c>
       <c r="W79" s="23"/>
       <c r="X79" s="104">
@@ -20689,7 +20718,7 @@
       </c>
       <c r="B80" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C80" t="e" vm="60">
         <v>#VALUE!</v>
@@ -20700,7 +20729,7 @@
       </c>
       <c r="E80" s="17" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989415717188</v>
+        <v>45975.023350844531</v>
       </c>
       <c r="F80" s="18" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -20744,7 +20773,7 @@
       </c>
       <c r="P80" s="22" cm="1">
         <f t="array" aca="1" ref="P80" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2554427</v>
+        <v>2555765</v>
       </c>
       <c r="Q80" s="22" cm="1">
         <f t="array" aca="1" ref="Q80" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -20763,7 +20792,7 @@
       </c>
       <c r="V80" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.1753689553848574</v>
+        <v>1.1759846095657382</v>
       </c>
       <c r="W80" s="23"/>
       <c r="X80" s="104">
@@ -20807,7 +20836,7 @@
       </c>
       <c r="B81" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C81" t="e" vm="61">
         <v>#VALUE!</v>
@@ -20818,7 +20847,7 @@
       </c>
       <c r="E81" s="17" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990065022655</v>
+        <v>45975.023588865624</v>
       </c>
       <c r="F81" s="18" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -20862,7 +20891,7 @@
       </c>
       <c r="P81" s="22" cm="1">
         <f t="array" aca="1" ref="P81" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>13486382</v>
+        <v>13618884</v>
       </c>
       <c r="Q81" s="22" cm="1">
         <f t="array" aca="1" ref="Q81" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -20881,7 +20910,7 @@
       </c>
       <c r="V81" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.2785254012271827</v>
+        <v>1.2910867518335503</v>
       </c>
       <c r="W81" s="23"/>
       <c r="X81" s="104">
@@ -20925,7 +20954,7 @@
       </c>
       <c r="B82" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C82" t="e" vm="62">
         <v>#VALUE!</v>
@@ -20936,7 +20965,7 @@
       </c>
       <c r="E82" s="17" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.980309571096</v>
+        <v>45975.021691573435</v>
       </c>
       <c r="F82" s="18" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -20980,7 +21009,7 @@
       </c>
       <c r="P82" s="22" cm="1">
         <f t="array" aca="1" ref="P82" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>7849304</v>
+        <v>7849431</v>
       </c>
       <c r="Q82" s="22" cm="1">
         <f t="array" aca="1" ref="Q82" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -20999,7 +21028,7 @@
       </c>
       <c r="V82" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.78354892489052552</v>
+        <v>0.78356160253856422</v>
       </c>
       <c r="W82" s="23"/>
       <c r="X82" s="104">
@@ -21043,7 +21072,7 @@
       </c>
       <c r="B83" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C83" t="e" vm="63">
         <v>#VALUE!</v>
@@ -21054,7 +21083,7 @@
       </c>
       <c r="E83" s="17" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990204918751</v>
+        <v>45975.020687615623</v>
       </c>
       <c r="F83" s="18" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21098,7 +21127,7 @@
       </c>
       <c r="P83" s="22" cm="1">
         <f t="array" aca="1" ref="P83" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>2031649</v>
+        <v>2031686</v>
       </c>
       <c r="Q83" s="22" cm="1">
         <f t="array" aca="1" ref="Q83" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -21117,7 +21146,7 @@
       </c>
       <c r="V83" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.76008682648956183</v>
+        <v>0.7601006690443437</v>
       </c>
       <c r="W83" s="23"/>
       <c r="X83" s="104">
@@ -21161,7 +21190,7 @@
       </c>
       <c r="B84" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C84" t="e" vm="64">
         <v>#VALUE!</v>
@@ -21172,7 +21201,7 @@
       </c>
       <c r="E84" s="17" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.985611145312</v>
+        <v>45975.022580196091</v>
       </c>
       <c r="F84" s="18" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21216,7 +21245,7 @@
       </c>
       <c r="P84" s="22" cm="1">
         <f t="array" aca="1" ref="P84" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>5679506</v>
+        <v>5680892</v>
       </c>
       <c r="Q84" s="22" cm="1">
         <f t="array" aca="1" ref="Q84" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -21235,7 +21264,7 @@
       </c>
       <c r="V84" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.2910776275658138</v>
+        <v>1.2913926960932185</v>
       </c>
       <c r="W84" s="23"/>
       <c r="X84" s="104">
@@ -21279,7 +21308,7 @@
       </c>
       <c r="B85" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C85" t="e" vm="65">
         <v>#VALUE!</v>
@@ -21290,7 +21319,7 @@
       </c>
       <c r="E85" s="17" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.979166678124</v>
+        <v>45975.000000010936</v>
       </c>
       <c r="F85" s="18" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21512,7 +21541,7 @@
       </c>
       <c r="B87" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C87" t="e" vm="66">
         <v>#VALUE!</v>
@@ -21523,7 +21552,7 @@
       </c>
       <c r="E87" s="17" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.988303437502</v>
+        <v>45975.023027615622</v>
       </c>
       <c r="F87" s="18" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21567,7 +21596,7 @@
       </c>
       <c r="P87" s="22" cm="1">
         <f t="array" aca="1" ref="P87" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>8664549</v>
+        <v>8676525</v>
       </c>
       <c r="Q87" s="22" cm="1">
         <f t="array" aca="1" ref="Q87" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -21586,7 +21615,7 @@
       </c>
       <c r="V87" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.83837244135538358</v>
+        <v>0.83953122623358922</v>
       </c>
       <c r="W87" s="23"/>
       <c r="X87" s="104">
@@ -21630,7 +21659,7 @@
       </c>
       <c r="B88" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C88" t="e" vm="67">
         <v>#VALUE!</v>
@@ -21641,7 +21670,7 @@
       </c>
       <c r="E88" s="17" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.990611157031</v>
+        <v>45975.023739328128</v>
       </c>
       <c r="F88" s="18" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21685,7 +21714,7 @@
       </c>
       <c r="P88" s="22" cm="1">
         <f t="array" aca="1" ref="P88" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>123056356</v>
+        <v>123070248</v>
       </c>
       <c r="Q88" s="22" cm="1">
         <f t="array" aca="1" ref="Q88" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -21704,7 +21733,7 @@
       </c>
       <c r="V88" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.5377576160807074</v>
+        <v>1.5379312156370162</v>
       </c>
       <c r="W88" s="23"/>
       <c r="X88" s="104">
@@ -21748,7 +21777,7 @@
       </c>
       <c r="B89" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C89" t="e" vm="68">
         <v>#VALUE!</v>
@@ -21759,7 +21788,7 @@
       </c>
       <c r="E89" s="17" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.983080416408</v>
+        <v>45975.019714606249</v>
       </c>
       <c r="F89" s="18" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21803,7 +21832,7 @@
       </c>
       <c r="P89" s="22" cm="1">
         <f t="array" aca="1" ref="P89" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>41381063</v>
+        <v>41384329</v>
       </c>
       <c r="Q89" s="22" cm="1">
         <f t="array" aca="1" ref="Q89" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -21822,7 +21851,7 @@
       </c>
       <c r="V89" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.71563847986450324</v>
+        <v>0.71569496162465618</v>
       </c>
       <c r="W89" s="23"/>
       <c r="X89" s="104">
@@ -21866,7 +21895,7 @@
       </c>
       <c r="B90" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C90" t="e" vm="69">
         <v>#VALUE!</v>
@@ -21877,7 +21906,7 @@
       </c>
       <c r="E90" s="17" cm="1">
         <f t="array" aca="1" ref="E90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.979166678124</v>
+        <v>45975.023650231247</v>
       </c>
       <c r="F90" s="18" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -21889,7 +21918,7 @@
       </c>
       <c r="H90" s="18" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>38.020000000000003</v>
+        <v>38.015000000000001</v>
       </c>
       <c r="I90" s="18" cm="1">
         <f t="array" aca="1" ref="I90" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -21901,15 +21930,15 @@
       </c>
       <c r="K90" s="19" cm="1">
         <f t="array" aca="1" ref="K90" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>15.966100000000001</v>
+        <v>15.964</v>
       </c>
       <c r="L90" s="20" cm="1">
         <f t="array" aca="1" ref="L90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-0.42</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="M90" s="21" cm="1">
         <f t="array" aca="1" ref="M90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-1.0926E-2</v>
+        <v>-1.1056E-2</v>
       </c>
       <c r="N90" s="18" cm="1">
         <f t="array" aca="1" ref="N90" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -21921,7 +21950,7 @@
       </c>
       <c r="P90" s="22" cm="1">
         <f t="array" aca="1" ref="P90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>3429629</v>
+        <v>3429756</v>
       </c>
       <c r="Q90" s="22" cm="1">
         <f t="array" aca="1" ref="Q90" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -21940,7 +21969,7 @@
       </c>
       <c r="V90" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.1549827912521637</v>
+        <v>1.1550255605471775</v>
       </c>
       <c r="W90" s="23"/>
       <c r="X90" s="104">
@@ -21984,7 +22013,7 @@
       </c>
       <c r="B91" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C91" t="e" vm="70">
         <v>#VALUE!</v>
@@ -21995,7 +22024,7 @@
       </c>
       <c r="E91" s="17" cm="1">
         <f t="array" aca="1" ref="E91" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.988005161722</v>
+        <v>45975.0152915625</v>
       </c>
       <c r="F91" s="18" cm="1">
         <f t="array" aca="1" ref="F91" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -22039,7 +22068,7 @@
       </c>
       <c r="P91" s="22" cm="1">
         <f t="array" aca="1" ref="P91" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>8561142</v>
+        <v>8566640</v>
       </c>
       <c r="Q91" s="22" cm="1">
         <f t="array" aca="1" ref="Q91" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -22058,7 +22087,7 @@
       </c>
       <c r="V91" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>1.3633025612018903</v>
+        <v>1.3641780796177148</v>
       </c>
       <c r="W91" s="23"/>
       <c r="X91" s="104">
@@ -22102,7 +22131,7 @@
       </c>
       <c r="B92" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C92" t="e" vm="71">
         <v>#VALUE!</v>
@@ -22113,7 +22142,7 @@
       </c>
       <c r="E92" s="17" cm="1">
         <f t="array" aca="1" ref="E92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Last trade time",TRUE)</f>
-        <v>45974.989071353906</v>
+        <v>45975</v>
       </c>
       <c r="F92" s="18" cm="1">
         <f t="array" aca="1" ref="F92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Previous close",TRUE)</f>
@@ -22125,7 +22154,7 @@
       </c>
       <c r="H92" s="18" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Price")</f>
-        <v>196.62</v>
+        <v>196.66</v>
       </c>
       <c r="I92" s="18" cm="1">
         <f t="array" aca="1" ref="I92" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"Low"),0)</f>
@@ -22137,15 +22166,15 @@
       </c>
       <c r="K92" s="19" cm="1">
         <f t="array" aca="1" ref="K92" ca="1">IFERROR(_FV(RTData[[#This Row],[Company Name]],"P/E",TRUE),99)</f>
-        <v>13.068199999999999</v>
+        <v>13.0708</v>
       </c>
       <c r="L92" s="20" cm="1">
         <f t="array" aca="1" ref="L92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change")</f>
-        <v>-3.37</v>
+        <v>-3.33</v>
       </c>
       <c r="M92" s="21" cm="1">
         <f t="array" aca="1" ref="M92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Change (%)",TRUE)</f>
-        <v>-1.6851000000000001E-2</v>
+        <v>-1.6650999999999999E-2</v>
       </c>
       <c r="N92" s="18" cm="1">
         <f t="array" aca="1" ref="N92" ca="1">_FV(RTData[[#This Row],[Company Name]],"52 week low",TRUE)</f>
@@ -22157,7 +22186,7 @@
       </c>
       <c r="P92" s="22" cm="1">
         <f t="array" aca="1" ref="P92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume")</f>
-        <v>516370</v>
+        <v>516371</v>
       </c>
       <c r="Q92" s="22" cm="1">
         <f t="array" aca="1" ref="Q92" ca="1">_FV(RTData[[#This Row],[Company Name]],"Volume average",TRUE)</f>
@@ -22176,7 +22205,7 @@
       </c>
       <c r="V92" s="23">
         <f ca="1">IFERROR(RTData[[#This Row],[Volume]]/RTData[[#This Row],[Volume average]],1)</f>
-        <v>0.47834049557991037</v>
+        <v>0.47834142193212986</v>
       </c>
       <c r="W92" s="23"/>
       <c r="X92" s="104">
@@ -22220,7 +22249,7 @@
       </c>
       <c r="B93" s="38">
         <f ca="1">D99</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="C93" t="e" vm="72">
         <v>#VALUE!</v>
@@ -22706,7 +22735,7 @@
       <c r="K97"/>
       <c r="L97" s="20">
         <f ca="1">SUBTOTAL(101,RTData[Change])</f>
-        <v>-1.9596499999999997</v>
+        <v>-1.9592787234042555</v>
       </c>
       <c r="M97" s="42">
         <f ca="1">SUBTOTAL(104,RTData[Change%])</f>
@@ -22757,7 +22786,7 @@
       </c>
       <c r="B99" s="46" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">_FV(A99,"Price")</f>
-        <v>1.1627000000000001</v>
+        <v>1.1629</v>
       </c>
       <c r="C99" s="47" cm="1">
         <f t="array" aca="1" ref="C99" ca="1">_FV(A99,"52 week high",TRUE)</f>
@@ -22765,7 +22794,7 @@
       </c>
       <c r="D99" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>0.86006708523264808</v>
+        <v>0.85991916759824572</v>
       </c>
       <c r="P99" s="48"/>
       <c r="R99"/>
@@ -22778,7 +22807,7 @@
       </c>
       <c r="B100" s="46" cm="1">
         <f t="array" aca="1" ref="B100" ca="1">_FV(A100,"Price")</f>
-        <v>0.92210000000000003</v>
+        <v>0.9224</v>
       </c>
       <c r="C100" s="50" cm="1">
         <f t="array" aca="1" ref="C100" ca="1">_FV(A100,"52 week high",TRUE)</f>
@@ -22786,7 +22815,7 @@
       </c>
       <c r="D100" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>1.0844810758052272</v>
+        <v>1.0841283607979184</v>
       </c>
       <c r="P100" s="48"/>
       <c r="R100"/>
@@ -22816,7 +22845,7 @@
       </c>
       <c r="B102" s="46" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">_FV(A102,"Price")</f>
-        <v>1.7809999999999999</v>
+        <v>1.7806</v>
       </c>
       <c r="C102" s="47" cm="1">
         <f t="array" aca="1" ref="C102" ca="1">_FV(A102,"52 week high",TRUE)</f>
@@ -22824,7 +22853,7 @@
       </c>
       <c r="D102" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>0.56148231330713083</v>
+        <v>0.5616084465910367</v>
       </c>
       <c r="P102" s="48"/>
       <c r="R102"/>
@@ -22835,7 +22864,7 @@
       </c>
       <c r="B103" s="46" cm="1">
         <f t="array" aca="1" ref="B103" ca="1">_FV(A103,"Price")</f>
-        <v>1.6315999999999999</v>
+        <v>1.6323000000000001</v>
       </c>
       <c r="C103" s="47" cm="1">
         <f t="array" aca="1" ref="C103" ca="1">_FV(A103,"52 week high",TRUE)</f>
@@ -22843,7 +22872,7 @@
       </c>
       <c r="D103" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>0.61289531747977444</v>
+        <v>0.61263248177418361</v>
       </c>
       <c r="P103" s="48"/>
       <c r="R103"/>
@@ -22854,7 +22883,7 @@
       </c>
       <c r="B104" s="46" cm="1">
         <f t="array" aca="1" ref="B104" ca="1">_FV(A104,"Price")</f>
-        <v>154.62</v>
+        <v>154.65</v>
       </c>
       <c r="C104" s="52" cm="1">
         <f t="array" aca="1" ref="C104" ca="1">_FV(A104,"52 week high",TRUE)</f>
@@ -22862,7 +22891,7 @@
       </c>
       <c r="D104" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>6.4674686327771307E-3</v>
+        <v>6.4662140316844481E-3</v>
       </c>
       <c r="J104"/>
       <c r="P104" s="48"/>
@@ -22874,7 +22903,7 @@
       </c>
       <c r="B105" s="46" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">_FV(A105,"Price")</f>
-        <v>0.79310000000000003</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="C105" s="50" cm="1">
         <f t="array" aca="1" ref="C105" ca="1">_FV(A105,"52 week high",TRUE)</f>
@@ -22882,7 +22911,7 @@
       </c>
       <c r="D105" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>1.2608750472828143</v>
+        <v>1.2607160867372667</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.3">
@@ -22891,7 +22920,7 @@
       </c>
       <c r="B106" s="46" cm="1">
         <f t="array" aca="1" ref="B106" ca="1">_FV(A106,"Price")</f>
-        <v>0.76049999999999995</v>
+        <v>0.76029999999999998</v>
       </c>
       <c r="C106" s="51" cm="1">
         <f t="array" aca="1" ref="C106" ca="1">_FV(A106,"52 week high",TRUE)</f>
@@ -22899,7 +22928,7 @@
       </c>
       <c r="D106" s="18">
         <f ca="1">1/RTExR[[#This Row],[RT]]</f>
-        <v>1.3149243918474689</v>
+        <v>1.3152702880441931</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.3">
@@ -23755,7 +23784,7 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AA3:AA96">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.04</formula>
     </cfRule>
   </conditionalFormatting>
